--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/100/Output_21_36.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/100/Output_21_36.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1215446.259707643</v>
+        <v>1211689.869997855</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>33372278.24812808</v>
+        <v>33372278.24812807</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>5915902.834835915</v>
+        <v>5915902.834835911</v>
       </c>
     </row>
     <row r="9">
@@ -1369,25 +1369,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>62.19911286983291</v>
+        <v>408.9851551450805</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>420.7096284534327</v>
       </c>
       <c r="D11" t="n">
-        <v>418.499267342322</v>
+        <v>418.4992673423217</v>
       </c>
       <c r="E11" t="n">
-        <v>416.3855777583098</v>
+        <v>416.3855777583096</v>
       </c>
       <c r="F11" t="n">
-        <v>410.5373356599064</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>382.4562447723396</v>
+        <v>234.2583441122846</v>
       </c>
       <c r="H11" t="n">
-        <v>253.9729163065507</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1429,7 +1429,7 @@
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>345.9393609305338</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
@@ -1438,7 +1438,7 @@
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>391.1518428283649</v>
       </c>
     </row>
     <row r="12">
@@ -1527,25 +1527,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>176.8490128968193</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>157.7846747666292</v>
       </c>
       <c r="D13" t="n">
-        <v>151.1677932355146</v>
+        <v>151.1677932355144</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>155.0090040767919</v>
       </c>
       <c r="F13" t="n">
-        <v>105.4362025091997</v>
+        <v>161.8885638628832</v>
       </c>
       <c r="G13" t="n">
-        <v>150.0423489486288</v>
+        <v>150.0423489486286</v>
       </c>
       <c r="H13" t="n">
-        <v>117.9692003794993</v>
+        <v>117.9692003794991</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1578,25 +1578,25 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>129.9308534758298</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>226.7733322206495</v>
+        <v>226.7733322206493</v>
       </c>
       <c r="U13" t="n">
-        <v>262.5513459967665</v>
+        <v>200.085172172312</v>
       </c>
       <c r="V13" t="n">
-        <v>271.0345334132959</v>
+        <v>271.0345334132957</v>
       </c>
       <c r="W13" t="n">
-        <v>256.2547207345934</v>
+        <v>256.2547207345932</v>
       </c>
       <c r="X13" t="n">
-        <v>229.8864174849437</v>
+        <v>229.8864174849435</v>
       </c>
       <c r="Y13" t="n">
-        <v>212.0940543440549</v>
+        <v>212.0940543440547</v>
       </c>
     </row>
     <row r="14">
@@ -1606,25 +1606,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>408.9851551450807</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>306.8781160833616</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>416.3855777583096</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>382.4562447723394</v>
       </c>
       <c r="H14" t="n">
-        <v>253.9729163065507</v>
+        <v>253.9729163065505</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1660,22 +1660,22 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>196.602119380601</v>
+        <v>196.6021193806008</v>
       </c>
       <c r="U14" t="n">
-        <v>243.4285649287232</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>345.9393609305338</v>
+        <v>345.9393609305336</v>
       </c>
       <c r="W14" t="n">
-        <v>387.7554804080991</v>
+        <v>387.7554804080988</v>
       </c>
       <c r="X14" t="n">
-        <v>401.8996191515045</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>51.40659938870193</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -1736,7 +1736,7 @@
         <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>44.1748202942631</v>
+        <v>44.17482029426311</v>
       </c>
       <c r="T15" t="n">
         <v>124.8306395731037</v>
@@ -1764,28 +1764,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>176.8490128968193</v>
+        <v>176.8490128968191</v>
       </c>
       <c r="C16" t="n">
-        <v>157.7846747666294</v>
+        <v>157.7846747666292</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>155.0090040767922</v>
+        <v>155.0090040767919</v>
       </c>
       <c r="F16" t="n">
-        <v>161.8885638628834</v>
+        <v>161.8885638628832</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>49.93330236653883</v>
       </c>
       <c r="H16" t="n">
-        <v>117.9692003794993</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>49.41291406313647</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1815,25 +1815,25 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>129.9308534758298</v>
+        <v>129.9308534758297</v>
       </c>
       <c r="T16" t="n">
-        <v>226.7733322206495</v>
+        <v>226.7733322206493</v>
       </c>
       <c r="U16" t="n">
-        <v>145.1025339206678</v>
+        <v>262.5513459967663</v>
       </c>
       <c r="V16" t="n">
-        <v>271.0345334132959</v>
+        <v>271.0345334132957</v>
       </c>
       <c r="W16" t="n">
-        <v>256.2547207345934</v>
+        <v>256.2547207345932</v>
       </c>
       <c r="X16" t="n">
-        <v>229.8864174849437</v>
+        <v>229.8864174849435</v>
       </c>
       <c r="Y16" t="n">
-        <v>212.0940543440549</v>
+        <v>212.0940543440547</v>
       </c>
     </row>
     <row r="17">
@@ -1843,25 +1843,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>408.9851551450807</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>338.220218054581</v>
       </c>
       <c r="D17" t="n">
-        <v>418.499267342322</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>416.3855777583098</v>
+        <v>416.3855777583096</v>
       </c>
       <c r="F17" t="n">
-        <v>18.53881148682671</v>
+        <v>410.5373356599061</v>
       </c>
       <c r="G17" t="n">
-        <v>382.4562447723396</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>253.9729163065507</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1903,16 +1903,16 @@
         <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>345.9393609305336</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>387.7554804080988</v>
       </c>
       <c r="X17" t="n">
         <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>391.1518428283651</v>
+        <v>391.1518428283649</v>
       </c>
     </row>
     <row r="18">
@@ -1973,7 +1973,7 @@
         <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>44.1748202942631</v>
+        <v>44.17482029426311</v>
       </c>
       <c r="T18" t="n">
         <v>124.8306395731037</v>
@@ -2001,28 +2001,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>176.8490128968193</v>
+        <v>176.8490128968191</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>157.7846747666292</v>
       </c>
       <c r="D19" t="n">
-        <v>151.1677932355146</v>
+        <v>151.1677932355144</v>
       </c>
       <c r="E19" t="n">
-        <v>155.0090040767922</v>
+        <v>155.0090040767919</v>
       </c>
       <c r="F19" t="n">
-        <v>161.8885638628834</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>150.0423489486288</v>
+        <v>120.0452907719214</v>
       </c>
       <c r="H19" t="n">
-        <v>117.9692003794993</v>
+        <v>117.9692003794991</v>
       </c>
       <c r="I19" t="n">
-        <v>49.41291406313648</v>
+        <v>49.41291406313627</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2052,25 +2052,25 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>129.9308534758299</v>
+        <v>129.9308534758297</v>
       </c>
       <c r="T19" t="n">
-        <v>226.7733322206495</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>262.5513459967665</v>
+        <v>262.5513459967663</v>
       </c>
       <c r="V19" t="n">
-        <v>10.16025391968334</v>
+        <v>271.0345334132957</v>
       </c>
       <c r="W19" t="n">
-        <v>256.2547207345934</v>
+        <v>256.2547207345932</v>
       </c>
       <c r="X19" t="n">
-        <v>229.8864174849437</v>
+        <v>229.8864174849435</v>
       </c>
       <c r="Y19" t="n">
-        <v>212.0940543440549</v>
+        <v>212.0940543440547</v>
       </c>
     </row>
     <row r="20">
@@ -2080,19 +2080,19 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>408.9851551450807</v>
+        <v>408.9851551450805</v>
       </c>
       <c r="C20" t="n">
-        <v>234.0199986442554</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>418.4992673423217</v>
       </c>
       <c r="E20" t="n">
-        <v>416.3855777583098</v>
+        <v>416.3855777583096</v>
       </c>
       <c r="F20" t="n">
-        <v>410.5373356599064</v>
+        <v>410.5373356599061</v>
       </c>
       <c r="G20" t="n">
         <v>0</v>
@@ -2131,13 +2131,13 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>27.01028645237304</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>196.6021193806008</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>37.08074120207124</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -2146,10 +2146,10 @@
         <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>401.8996191515045</v>
+        <v>401.8996191515042</v>
       </c>
       <c r="Y20" t="n">
-        <v>391.1518428283651</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -2238,28 +2238,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>176.8490128968193</v>
+        <v>176.8490128968191</v>
       </c>
       <c r="C22" t="n">
-        <v>157.7846747666294</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>57.67562818453933</v>
       </c>
       <c r="E22" t="n">
-        <v>155.0090040767922</v>
+        <v>155.0090040767919</v>
       </c>
       <c r="F22" t="n">
-        <v>106.4914571822107</v>
+        <v>161.8885638628832</v>
       </c>
       <c r="G22" t="n">
-        <v>150.0423489486288</v>
+        <v>150.0423489486286</v>
       </c>
       <c r="H22" t="n">
-        <v>117.9692003794993</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>49.41291406313648</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2289,25 +2289,25 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>129.9308534758299</v>
+        <v>129.9308534758297</v>
       </c>
       <c r="T22" t="n">
-        <v>226.7733322206495</v>
+        <v>226.7733322206493</v>
       </c>
       <c r="U22" t="n">
-        <v>262.5513459967665</v>
+        <v>262.5513459967663</v>
       </c>
       <c r="V22" t="n">
-        <v>271.0345334132959</v>
+        <v>271.0345334132957</v>
       </c>
       <c r="W22" t="n">
-        <v>256.2547207345934</v>
+        <v>256.2547207345932</v>
       </c>
       <c r="X22" t="n">
-        <v>229.8864174849437</v>
+        <v>229.8864174849435</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>212.0940543440547</v>
       </c>
     </row>
     <row r="23">
@@ -2317,19 +2317,19 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>370.178490153466</v>
+        <v>408.9851551450805</v>
       </c>
       <c r="C23" t="n">
-        <v>420.709628453433</v>
+        <v>420.7096284534327</v>
       </c>
       <c r="D23" t="n">
-        <v>418.499267342322</v>
+        <v>418.4992673423217</v>
       </c>
       <c r="E23" t="n">
-        <v>416.3855777583098</v>
+        <v>416.3855777583096</v>
       </c>
       <c r="F23" t="n">
-        <v>410.5373356599064</v>
+        <v>410.5373356599061</v>
       </c>
       <c r="G23" t="n">
         <v>0</v>
@@ -2368,22 +2368,22 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>27.01028645237304</v>
+        <v>27.01028645237283</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>196.6021193806008</v>
       </c>
       <c r="U23" t="n">
-        <v>243.4285649287232</v>
+        <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>0</v>
+        <v>345.9393609305336</v>
       </c>
       <c r="W23" t="n">
-        <v>0</v>
+        <v>63.9800387774759</v>
       </c>
       <c r="X23" t="n">
-        <v>401.8996191515045</v>
+        <v>0</v>
       </c>
       <c r="Y23" t="n">
         <v>0</v>
@@ -2475,28 +2475,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>176.8490128968193</v>
+        <v>176.8490128968191</v>
       </c>
       <c r="C25" t="n">
-        <v>157.7846747666294</v>
+        <v>157.7846747666292</v>
       </c>
       <c r="D25" t="n">
-        <v>151.1677932355146</v>
+        <v>151.1677932355144</v>
       </c>
       <c r="E25" t="n">
-        <v>155.0090040767922</v>
+        <v>155.0090040767919</v>
       </c>
       <c r="F25" t="n">
-        <v>161.8885638628834</v>
+        <v>161.8885638628832</v>
       </c>
       <c r="G25" t="n">
-        <v>150.0423489486288</v>
+        <v>150.0423489486286</v>
       </c>
       <c r="H25" t="n">
-        <v>117.9692003794993</v>
+        <v>117.9692003794991</v>
       </c>
       <c r="I25" t="n">
-        <v>49.41291406313648</v>
+        <v>49.41291406313627</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2526,25 +2526,25 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>129.9308534758299</v>
+        <v>129.9308534758297</v>
       </c>
       <c r="T25" t="n">
-        <v>226.7733322206492</v>
+        <v>226.7733322206493</v>
       </c>
       <c r="U25" t="n">
         <v>262.5513459967667</v>
       </c>
       <c r="V25" t="n">
-        <v>271.0345334132959</v>
+        <v>271.0345334132957</v>
       </c>
       <c r="W25" t="n">
-        <v>256.2547207345934</v>
+        <v>256.2547207345932</v>
       </c>
       <c r="X25" t="n">
-        <v>229.8864174849437</v>
+        <v>229.8864174849435</v>
       </c>
       <c r="Y25" t="n">
-        <v>212.0940543440549</v>
+        <v>212.0940543440547</v>
       </c>
     </row>
     <row r="26">
@@ -2569,7 +2569,7 @@
         <v>423.5887552948843</v>
       </c>
       <c r="G26" t="n">
-        <v>395.5076644073176</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -2605,25 +2605,25 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>40.06170608735099</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>209.6535390155789</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>256.4799845637012</v>
       </c>
       <c r="V26" t="n">
         <v>358.9907805655117</v>
       </c>
       <c r="W26" t="n">
-        <v>41.86682784145594</v>
+        <v>335.3825250454861</v>
       </c>
       <c r="X26" t="n">
         <v>414.9510387864824</v>
       </c>
       <c r="Y26" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -2763,13 +2763,13 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>142.9822731108081</v>
+        <v>142.9822731108078</v>
       </c>
       <c r="T28" t="n">
-        <v>239.8247518556274</v>
+        <v>239.8247518556271</v>
       </c>
       <c r="U28" t="n">
-        <v>275.6027656317437</v>
+        <v>275.6027656317446</v>
       </c>
       <c r="V28" t="n">
         <v>284.0859530482738</v>
@@ -2791,13 +2791,13 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0</v>
+        <v>293.769830513232</v>
       </c>
       <c r="C29" t="n">
         <v>433.7610480884109</v>
       </c>
       <c r="D29" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E29" t="n">
         <v>0</v>
@@ -2806,7 +2806,7 @@
         <v>423.5887552948843</v>
       </c>
       <c r="G29" t="n">
-        <v>395.5076644073176</v>
+        <v>0</v>
       </c>
       <c r="H29" t="n">
         <v>267.0243359415286</v>
@@ -2842,25 +2842,25 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>40.06170608735099</v>
       </c>
       <c r="T29" t="n">
         <v>209.6535390155789</v>
       </c>
       <c r="U29" t="n">
-        <v>256.4799845637012</v>
+        <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X29" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>144.4629177612912</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="30">
@@ -3003,10 +3003,10 @@
         <v>142.9822731108078</v>
       </c>
       <c r="T31" t="n">
-        <v>239.8247518556274</v>
+        <v>239.8247518556271</v>
       </c>
       <c r="U31" t="n">
-        <v>275.6027656317444</v>
+        <v>275.6027656317446</v>
       </c>
       <c r="V31" t="n">
         <v>284.0859530482738</v>
@@ -3028,13 +3028,13 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>356.3652975489732</v>
+        <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E32" t="n">
         <v>429.4369973932878</v>
@@ -3043,10 +3043,10 @@
         <v>423.5887552948843</v>
       </c>
       <c r="G32" t="n">
-        <v>395.5076644073176</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>267.0243359415286</v>
+        <v>0.8299368134685342</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3079,25 +3079,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>40.06170608735099</v>
       </c>
       <c r="T32" t="n">
-        <v>209.6535390155789</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
         <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W32" t="n">
         <v>400.806900043077</v>
       </c>
       <c r="X32" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y32" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="33">
@@ -3243,7 +3243,7 @@
         <v>239.8247518556271</v>
       </c>
       <c r="U34" t="n">
-        <v>275.6027656317446</v>
+        <v>275.6027656317441</v>
       </c>
       <c r="V34" t="n">
         <v>284.0859530482738</v>
@@ -3268,19 +3268,19 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C35" t="n">
-        <v>433.7610480884109</v>
+        <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E35" t="n">
         <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>395.5076644073176</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -3319,22 +3319,22 @@
         <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>209.6535390155789</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>256.4799845637012</v>
       </c>
       <c r="V35" t="n">
-        <v>0</v>
+        <v>190.5541140435788</v>
       </c>
       <c r="W35" t="n">
-        <v>174.8494880357973</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X35" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y35" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -3432,13 +3432,13 @@
         <v>164.2192128704925</v>
       </c>
       <c r="E37" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>163.0937685836068</v>
       </c>
       <c r="H37" t="n">
         <v>131.0206200144773</v>
@@ -3477,13 +3477,13 @@
         <v>142.9822731108078</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>193.5403842593799</v>
       </c>
       <c r="U37" t="n">
         <v>275.6027656317444</v>
       </c>
       <c r="V37" t="n">
-        <v>72.5742247025962</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W37" t="n">
         <v>269.3061403695714</v>
@@ -3492,7 +3492,7 @@
         <v>242.9378371199217</v>
       </c>
       <c r="Y37" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -3502,25 +3502,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C38" t="n">
-        <v>189.205358474065</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D38" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E38" t="n">
         <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>423.5887552948843</v>
+        <v>162.8688728360132</v>
       </c>
       <c r="G38" t="n">
         <v>395.5076644073176</v>
       </c>
       <c r="H38" t="n">
-        <v>267.0243359415286</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3553,10 +3553,10 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>40.06170608735099</v>
       </c>
       <c r="T38" t="n">
-        <v>209.6535390155789</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
         <v>0</v>
@@ -3565,7 +3565,7 @@
         <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X38" t="n">
         <v>0</v>
@@ -3666,13 +3666,13 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D40" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
         <v>168.0604237117701</v>
       </c>
       <c r="F40" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
@@ -3681,7 +3681,7 @@
         <v>131.0206200144773</v>
       </c>
       <c r="I40" t="n">
-        <v>62.46433369811443</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3711,16 +3711,16 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>142.9822731108078</v>
+        <v>93.26932297597088</v>
       </c>
       <c r="T40" t="n">
         <v>239.8247518556274</v>
       </c>
       <c r="U40" t="n">
-        <v>108.3522384787132</v>
+        <v>275.6027656317444</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W40" t="n">
         <v>269.3061403695714</v>
@@ -3739,25 +3739,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C41" t="n">
         <v>433.7610480884109</v>
       </c>
       <c r="D41" t="n">
-        <v>306.3996689777941</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E41" t="n">
         <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>395.5076644073176</v>
       </c>
       <c r="H41" t="n">
-        <v>267.0243359415286</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3790,25 +3790,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>40.06170608735099</v>
+        <v>38.48952180561658</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>209.6535390155789</v>
       </c>
       <c r="U41" t="n">
         <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W41" t="n">
         <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -3897,10 +3897,10 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>189.9004325317972</v>
+        <v>73.61925960259209</v>
       </c>
       <c r="C43" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
@@ -3954,7 +3954,7 @@
         <v>239.8247518556274</v>
       </c>
       <c r="U43" t="n">
-        <v>231.4233354208536</v>
+        <v>275.6027656317444</v>
       </c>
       <c r="V43" t="n">
         <v>284.0859530482738</v>
@@ -3963,7 +3963,7 @@
         <v>269.3061403695714</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y43" t="n">
         <v>225.1454739790328</v>
@@ -3976,13 +3976,13 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>422.0365747800587</v>
+        <v>176.2125067645386</v>
       </c>
       <c r="C44" t="n">
-        <v>433.7610480884109</v>
+        <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>92.50794992626118</v>
+        <v>0</v>
       </c>
       <c r="E44" t="n">
         <v>429.4369973932878</v>
@@ -3991,10 +3991,10 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>395.5076644073176</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>267.0243359415286</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4033,19 +4033,19 @@
         <v>209.6535390155789</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>256.4799845637012</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W44" t="n">
         <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y44" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="45">
@@ -4134,13 +4134,13 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D46" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
         <v>168.0604237117701</v>
@@ -4149,13 +4149,13 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>163.0937685836068</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>131.0206200144773</v>
       </c>
       <c r="I46" t="n">
-        <v>62.46433369811443</v>
+        <v>27.29920429452545</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4203,7 +4203,7 @@
         <v>242.9378371199217</v>
       </c>
       <c r="Y46" t="n">
-        <v>75.66570819381251</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -5017,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1948.066492800903</v>
+        <v>1552.10838757557</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.066492800903</v>
+        <v>1127.149166915537</v>
       </c>
       <c r="D11" t="n">
-        <v>1525.339960131891</v>
+        <v>704.4226342465247</v>
       </c>
       <c r="E11" t="n">
-        <v>1104.748467446729</v>
+        <v>283.8311415613635</v>
       </c>
       <c r="F11" t="n">
-        <v>690.0642900124803</v>
+        <v>283.8311415613635</v>
       </c>
       <c r="G11" t="n">
-        <v>303.7448508485009</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="H11" t="n">
-        <v>47.20655154895476</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="I11" t="n">
-        <v>118.4065018001357</v>
+        <v>118.4065018001354</v>
       </c>
       <c r="J11" t="n">
-        <v>276.0532770435809</v>
+        <v>276.0532770435807</v>
       </c>
       <c r="K11" t="n">
-        <v>512.3249274228019</v>
+        <v>512.3249274228017</v>
       </c>
       <c r="L11" t="n">
-        <v>805.4408022867027</v>
+        <v>805.4408022867024</v>
       </c>
       <c r="M11" t="n">
         <v>1131.58869045549</v>
       </c>
       <c r="N11" t="n">
-        <v>1463.013992431968</v>
+        <v>1463.013992431967</v>
       </c>
       <c r="O11" t="n">
         <v>1775.96950697326</v>
       </c>
       <c r="P11" t="n">
-        <v>2043.06979815253</v>
+        <v>2043.069798152529</v>
       </c>
       <c r="Q11" t="n">
-        <v>2243.650993163597</v>
+        <v>2243.650993163596</v>
       </c>
       <c r="R11" t="n">
-        <v>2360.327577447738</v>
+        <v>2360.327577447737</v>
       </c>
       <c r="S11" t="n">
-        <v>2360.327577447738</v>
+        <v>2360.327577447737</v>
       </c>
       <c r="T11" t="n">
-        <v>2360.327577447738</v>
+        <v>2360.327577447737</v>
       </c>
       <c r="U11" t="n">
-        <v>2360.327577447738</v>
+        <v>2360.327577447737</v>
       </c>
       <c r="V11" t="n">
-        <v>2010.893879538108</v>
+        <v>2360.327577447737</v>
       </c>
       <c r="W11" t="n">
-        <v>2010.893879538108</v>
+        <v>2360.327577447737</v>
       </c>
       <c r="X11" t="n">
-        <v>2010.893879538108</v>
+        <v>2360.327577447737</v>
       </c>
       <c r="Y11" t="n">
-        <v>2010.893879538108</v>
+        <v>1965.224705903934</v>
       </c>
     </row>
     <row r="12">
@@ -5102,40 +5102,40 @@
         <v>436.1148439030331</v>
       </c>
       <c r="D12" t="n">
-        <v>341.0245550495864</v>
+        <v>341.0245550495863</v>
       </c>
       <c r="E12" t="n">
-        <v>246.9041403765401</v>
+        <v>246.90414037654</v>
       </c>
       <c r="F12" t="n">
-        <v>163.5203019927017</v>
+        <v>163.5203019927016</v>
       </c>
       <c r="G12" t="n">
         <v>79.1492015823585</v>
       </c>
       <c r="H12" t="n">
-        <v>47.20655154895476</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="I12" t="n">
-        <v>81.42328772043089</v>
+        <v>81.42328772043086</v>
       </c>
       <c r="J12" t="n">
-        <v>175.3166270668981</v>
+        <v>175.316627066898</v>
       </c>
       <c r="K12" t="n">
-        <v>335.7952991210684</v>
+        <v>335.7952991210682</v>
       </c>
       <c r="L12" t="n">
-        <v>551.5786779960908</v>
+        <v>551.5786779960906</v>
       </c>
       <c r="M12" t="n">
-        <v>803.3877032987883</v>
+        <v>803.387703298788</v>
       </c>
       <c r="N12" t="n">
         <v>1061.861364220108</v>
       </c>
       <c r="O12" t="n">
-        <v>1298.314267034638</v>
+        <v>1298.314267034639</v>
       </c>
       <c r="P12" t="n">
         <v>1488.088567599445</v>
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>577.1212435417249</v>
+        <v>950.0970417206177</v>
       </c>
       <c r="C13" t="n">
-        <v>577.1212435417249</v>
+        <v>790.7185823603862</v>
       </c>
       <c r="D13" t="n">
-        <v>424.426502899791</v>
+        <v>638.0238417184526</v>
       </c>
       <c r="E13" t="n">
-        <v>424.426502899791</v>
+        <v>481.4490901257334</v>
       </c>
       <c r="F13" t="n">
-        <v>317.9252882440337</v>
+        <v>317.9252882440333</v>
       </c>
       <c r="G13" t="n">
-        <v>166.3673600130955</v>
+        <v>166.3673600130952</v>
       </c>
       <c r="H13" t="n">
-        <v>47.20655154895476</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="I13" t="n">
-        <v>47.20655154895476</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="J13" t="n">
         <v>192.6919004158277</v>
       </c>
       <c r="K13" t="n">
-        <v>289.492000983386</v>
+        <v>393.4422361027641</v>
       </c>
       <c r="L13" t="n">
-        <v>831.572684369645</v>
+        <v>935.5229194890231</v>
       </c>
       <c r="M13" t="n">
-        <v>1415.75375978796</v>
+        <v>1066.127311827553</v>
       </c>
       <c r="N13" t="n">
-        <v>1543.25267159185</v>
+        <v>1635.885026789087</v>
       </c>
       <c r="O13" t="n">
-        <v>1661.018552939612</v>
+        <v>2173.32015736263</v>
       </c>
       <c r="P13" t="n">
-        <v>2109.294503087637</v>
+        <v>2274.089213540314</v>
       </c>
       <c r="Q13" t="n">
-        <v>2343.85648477097</v>
+        <v>2343.856484770969</v>
       </c>
       <c r="R13" t="n">
-        <v>2360.327577447738</v>
+        <v>2360.327577447737</v>
       </c>
       <c r="S13" t="n">
-        <v>2229.084291108516</v>
+        <v>2360.327577447737</v>
       </c>
       <c r="T13" t="n">
-        <v>2000.020319168466</v>
+        <v>2131.263605507687</v>
       </c>
       <c r="U13" t="n">
-        <v>1734.816939373753</v>
+        <v>1929.1573709902</v>
       </c>
       <c r="V13" t="n">
-        <v>1461.044683400726</v>
+        <v>1655.385115017174</v>
       </c>
       <c r="W13" t="n">
-        <v>1202.201531143561</v>
+        <v>1396.54196276001</v>
       </c>
       <c r="X13" t="n">
-        <v>969.993028633517</v>
+        <v>1164.333460249966</v>
       </c>
       <c r="Y13" t="n">
-        <v>755.7566101041687</v>
+        <v>950.0970417206177</v>
       </c>
     </row>
     <row r="14">
@@ -5254,37 +5254,37 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>303.7448508485009</v>
+        <v>1420.63367773134</v>
       </c>
       <c r="C14" t="n">
-        <v>303.7448508485009</v>
+        <v>1110.655782697641</v>
       </c>
       <c r="D14" t="n">
-        <v>303.7448508485009</v>
+        <v>1110.655782697641</v>
       </c>
       <c r="E14" t="n">
-        <v>303.7448508485009</v>
+        <v>690.0642900124799</v>
       </c>
       <c r="F14" t="n">
-        <v>303.7448508485009</v>
+        <v>690.0642900124799</v>
       </c>
       <c r="G14" t="n">
-        <v>303.7448508485009</v>
+        <v>303.7448508485007</v>
       </c>
       <c r="H14" t="n">
-        <v>47.20655154895475</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="I14" t="n">
-        <v>118.4065018001351</v>
+        <v>118.4065018001353</v>
       </c>
       <c r="J14" t="n">
-        <v>276.0532770435805</v>
+        <v>276.0532770435809</v>
       </c>
       <c r="K14" t="n">
-        <v>512.3249274228014</v>
+        <v>512.3249274228019</v>
       </c>
       <c r="L14" t="n">
-        <v>805.4408022867021</v>
+        <v>805.4408022867026</v>
       </c>
       <c r="M14" t="n">
         <v>1131.58869045549</v>
@@ -5311,19 +5311,19 @@
         <v>2161.739578073393</v>
       </c>
       <c r="U14" t="n">
-        <v>1915.852138751451</v>
+        <v>2161.739578073393</v>
       </c>
       <c r="V14" t="n">
-        <v>1566.41844084182</v>
+        <v>1812.305880163763</v>
       </c>
       <c r="W14" t="n">
-        <v>1174.746238409397</v>
+        <v>1420.63367773134</v>
       </c>
       <c r="X14" t="n">
-        <v>768.7870271452512</v>
+        <v>1420.63367773134</v>
       </c>
       <c r="Y14" t="n">
-        <v>716.8611691768654</v>
+        <v>1420.63367773134</v>
       </c>
     </row>
     <row r="15">
@@ -5351,28 +5351,28 @@
         <v>79.1492015823585</v>
       </c>
       <c r="H15" t="n">
-        <v>47.20655154895475</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="I15" t="n">
-        <v>81.4232877204301</v>
+        <v>81.42328772043086</v>
       </c>
       <c r="J15" t="n">
-        <v>175.3166270668973</v>
+        <v>175.316627066898</v>
       </c>
       <c r="K15" t="n">
-        <v>335.7952991210676</v>
+        <v>335.7952991210682</v>
       </c>
       <c r="L15" t="n">
-        <v>551.5786779960901</v>
+        <v>551.5786779960906</v>
       </c>
       <c r="M15" t="n">
-        <v>803.3877032987875</v>
+        <v>803.387703298788</v>
       </c>
       <c r="N15" t="n">
         <v>1061.861364220108</v>
       </c>
       <c r="O15" t="n">
-        <v>1298.314267034638</v>
+        <v>1298.314267034639</v>
       </c>
       <c r="P15" t="n">
         <v>1488.088567599445</v>
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>695.7564072549554</v>
+        <v>577.1212435417256</v>
       </c>
       <c r="C16" t="n">
-        <v>536.3779478947238</v>
+        <v>417.7427841814941</v>
       </c>
       <c r="D16" t="n">
-        <v>536.3779478947238</v>
+        <v>417.7427841814941</v>
       </c>
       <c r="E16" t="n">
-        <v>379.8031963020044</v>
+        <v>261.168032588775</v>
       </c>
       <c r="F16" t="n">
-        <v>216.279394420304</v>
+        <v>97.64423070707477</v>
       </c>
       <c r="G16" t="n">
-        <v>216.279394420304</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="H16" t="n">
-        <v>97.11858595616332</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="I16" t="n">
-        <v>47.20655154895475</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="J16" t="n">
         <v>192.6919004158277</v>
       </c>
       <c r="K16" t="n">
-        <v>564.2504555545215</v>
+        <v>564.2504555545214</v>
       </c>
       <c r="L16" t="n">
-        <v>688.1212571728196</v>
+        <v>733.4227107706877</v>
       </c>
       <c r="M16" t="n">
-        <v>818.725649511349</v>
+        <v>1317.603786189002</v>
       </c>
       <c r="N16" t="n">
-        <v>1388.483364472883</v>
+        <v>1887.361501150537</v>
       </c>
       <c r="O16" t="n">
-        <v>1825.813263392289</v>
+        <v>2005.127382498298</v>
       </c>
       <c r="P16" t="n">
-        <v>2274.089213540314</v>
+        <v>2105.896438675982</v>
       </c>
       <c r="Q16" t="n">
-        <v>2343.85648477097</v>
+        <v>2343.856484770969</v>
       </c>
       <c r="R16" t="n">
         <v>2360.327577447737</v>
       </c>
       <c r="S16" t="n">
-        <v>2229.084291108516</v>
+        <v>2229.084291108515</v>
       </c>
       <c r="T16" t="n">
-        <v>2000.020319168466</v>
+        <v>2000.020319168465</v>
       </c>
       <c r="U16" t="n">
-        <v>1853.452103086983</v>
+        <v>1734.816939373752</v>
       </c>
       <c r="V16" t="n">
-        <v>1579.679847113957</v>
+        <v>1461.044683400726</v>
       </c>
       <c r="W16" t="n">
-        <v>1320.836694856792</v>
+        <v>1202.201531143561</v>
       </c>
       <c r="X16" t="n">
-        <v>1088.628192346747</v>
+        <v>969.9930286335173</v>
       </c>
       <c r="Y16" t="n">
-        <v>874.3917738173992</v>
+        <v>755.7566101041691</v>
       </c>
     </row>
     <row r="17">
@@ -5491,37 +5491,37 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1552.10838757557</v>
+        <v>1224.118805561881</v>
       </c>
       <c r="C17" t="n">
-        <v>1552.10838757557</v>
+        <v>882.4822216683647</v>
       </c>
       <c r="D17" t="n">
-        <v>1129.381854906558</v>
+        <v>882.4822216683647</v>
       </c>
       <c r="E17" t="n">
-        <v>708.7903622213962</v>
+        <v>461.8907289832034</v>
       </c>
       <c r="F17" t="n">
-        <v>690.0642900124803</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="G17" t="n">
-        <v>303.7448508485009</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="H17" t="n">
-        <v>47.20655154895475</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="I17" t="n">
-        <v>118.4065018001353</v>
+        <v>118.4065018001357</v>
       </c>
       <c r="J17" t="n">
-        <v>276.0532770435807</v>
+        <v>276.0532770435809</v>
       </c>
       <c r="K17" t="n">
-        <v>512.3249274228017</v>
+        <v>512.3249274228019</v>
       </c>
       <c r="L17" t="n">
-        <v>805.4408022867025</v>
+        <v>805.4408022867027</v>
       </c>
       <c r="M17" t="n">
         <v>1131.58869045549</v>
@@ -5551,16 +5551,16 @@
         <v>2360.327577447737</v>
       </c>
       <c r="V17" t="n">
-        <v>2360.327577447737</v>
+        <v>2010.893879538107</v>
       </c>
       <c r="W17" t="n">
-        <v>2360.327577447737</v>
+        <v>1619.221677105684</v>
       </c>
       <c r="X17" t="n">
-        <v>2360.327577447737</v>
+        <v>1619.221677105684</v>
       </c>
       <c r="Y17" t="n">
-        <v>1965.224705903934</v>
+        <v>1224.118805561881</v>
       </c>
     </row>
     <row r="18">
@@ -5588,7 +5588,7 @@
         <v>79.1492015823585</v>
       </c>
       <c r="H18" t="n">
-        <v>47.20655154895475</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="I18" t="n">
         <v>81.42328772043086</v>
@@ -5597,19 +5597,19 @@
         <v>175.316627066898</v>
       </c>
       <c r="K18" t="n">
-        <v>335.7952991210683</v>
+        <v>335.7952991210682</v>
       </c>
       <c r="L18" t="n">
-        <v>551.5786779960907</v>
+        <v>551.5786779960906</v>
       </c>
       <c r="M18" t="n">
-        <v>803.3877032987882</v>
+        <v>803.387703298788</v>
       </c>
       <c r="N18" t="n">
         <v>1061.861364220108</v>
       </c>
       <c r="O18" t="n">
-        <v>1298.314267034638</v>
+        <v>1298.314267034639</v>
       </c>
       <c r="P18" t="n">
         <v>1488.088567599445</v>
@@ -5649,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>840.6306167675959</v>
+        <v>806.1852154817752</v>
       </c>
       <c r="C19" t="n">
-        <v>840.6306167675959</v>
+        <v>646.8067561215437</v>
       </c>
       <c r="D19" t="n">
-        <v>687.935876125662</v>
+        <v>494.11201547961</v>
       </c>
       <c r="E19" t="n">
-        <v>531.3611245329427</v>
+        <v>337.5372638868909</v>
       </c>
       <c r="F19" t="n">
-        <v>367.8373226512422</v>
+        <v>337.5372638868909</v>
       </c>
       <c r="G19" t="n">
-        <v>216.279394420304</v>
+        <v>216.2793944203036</v>
       </c>
       <c r="H19" t="n">
-        <v>97.11858595616332</v>
+        <v>97.1185859561631</v>
       </c>
       <c r="I19" t="n">
-        <v>47.20655154895475</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="J19" t="n">
-        <v>192.6919004158277</v>
+        <v>106.1122152511379</v>
       </c>
       <c r="K19" t="n">
-        <v>564.2504555545215</v>
+        <v>477.6707703898317</v>
       </c>
       <c r="L19" t="n">
-        <v>1106.331138940781</v>
+        <v>601.5415720081296</v>
       </c>
       <c r="M19" t="n">
-        <v>1485.796561053334</v>
+        <v>732.1459643466591</v>
       </c>
       <c r="N19" t="n">
-        <v>2055.554276014869</v>
+        <v>1301.903679308193</v>
       </c>
       <c r="O19" t="n">
-        <v>2173.320157362631</v>
+        <v>1839.338809881737</v>
       </c>
       <c r="P19" t="n">
         <v>2274.089213540314</v>
       </c>
       <c r="Q19" t="n">
-        <v>2343.85648477097</v>
+        <v>2343.856484770969</v>
       </c>
       <c r="R19" t="n">
         <v>2360.327577447737</v>
       </c>
       <c r="S19" t="n">
-        <v>2229.084291108516</v>
+        <v>2229.084291108515</v>
       </c>
       <c r="T19" t="n">
-        <v>2000.020319168466</v>
+        <v>2229.084291108515</v>
       </c>
       <c r="U19" t="n">
-        <v>1734.816939373752</v>
+        <v>1963.880911313802</v>
       </c>
       <c r="V19" t="n">
-        <v>1724.554056626597</v>
+        <v>1690.108655340776</v>
       </c>
       <c r="W19" t="n">
-        <v>1465.710904369432</v>
+        <v>1431.265503083611</v>
       </c>
       <c r="X19" t="n">
-        <v>1233.502401859388</v>
+        <v>1199.057000573567</v>
       </c>
       <c r="Y19" t="n">
-        <v>1019.26598333004</v>
+        <v>984.8205820442188</v>
       </c>
     </row>
     <row r="20">
@@ -5728,37 +5728,37 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1118.866058682765</v>
+        <v>1305.208754337377</v>
       </c>
       <c r="C20" t="n">
-        <v>882.4822216683651</v>
+        <v>1305.208754337377</v>
       </c>
       <c r="D20" t="n">
-        <v>882.4822216683651</v>
+        <v>882.4822216683647</v>
       </c>
       <c r="E20" t="n">
-        <v>461.8907289832036</v>
+        <v>461.8907289832034</v>
       </c>
       <c r="F20" t="n">
-        <v>47.20655154895475</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="G20" t="n">
-        <v>47.20655154895475</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="H20" t="n">
-        <v>47.20655154895475</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="I20" t="n">
-        <v>118.4065018001357</v>
+        <v>118.4065018001353</v>
       </c>
       <c r="J20" t="n">
-        <v>276.0532770435814</v>
+        <v>276.0532770435806</v>
       </c>
       <c r="K20" t="n">
-        <v>512.3249274228024</v>
+        <v>512.3249274228016</v>
       </c>
       <c r="L20" t="n">
-        <v>805.4408022867029</v>
+        <v>805.4408022867023</v>
       </c>
       <c r="M20" t="n">
         <v>1131.58869045549</v>
@@ -5773,31 +5773,31 @@
         <v>2043.069798152529</v>
       </c>
       <c r="Q20" t="n">
-        <v>2243.650993163597</v>
+        <v>2243.650993163596</v>
       </c>
       <c r="R20" t="n">
         <v>2360.327577447737</v>
       </c>
       <c r="S20" t="n">
-        <v>2333.044459819078</v>
+        <v>2360.327577447737</v>
       </c>
       <c r="T20" t="n">
-        <v>2333.044459819078</v>
+        <v>2161.739578073393</v>
       </c>
       <c r="U20" t="n">
-        <v>2333.044459819078</v>
+        <v>2124.284283929886</v>
       </c>
       <c r="V20" t="n">
-        <v>2333.044459819078</v>
+        <v>2124.284283929886</v>
       </c>
       <c r="W20" t="n">
-        <v>2333.044459819078</v>
+        <v>2124.284283929886</v>
       </c>
       <c r="X20" t="n">
-        <v>1927.085248554932</v>
+        <v>1718.325072665741</v>
       </c>
       <c r="Y20" t="n">
-        <v>1531.982377011129</v>
+        <v>1718.325072665741</v>
       </c>
     </row>
     <row r="21">
@@ -5825,7 +5825,7 @@
         <v>79.1492015823585</v>
       </c>
       <c r="H21" t="n">
-        <v>47.20655154895475</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="I21" t="n">
         <v>81.42328772043086</v>
@@ -5886,61 +5886,61 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>791.3576620710728</v>
+        <v>577.1212435417256</v>
       </c>
       <c r="C22" t="n">
-        <v>631.9792027108412</v>
+        <v>577.1212435417256</v>
       </c>
       <c r="D22" t="n">
-        <v>631.9792027108412</v>
+        <v>518.8630332543121</v>
       </c>
       <c r="E22" t="n">
-        <v>475.4044511181218</v>
+        <v>362.2882816615929</v>
       </c>
       <c r="F22" t="n">
-        <v>367.8373226512422</v>
+        <v>198.7644797798927</v>
       </c>
       <c r="G22" t="n">
-        <v>216.279394420304</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="H22" t="n">
-        <v>97.11858595616332</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="I22" t="n">
-        <v>47.20655154895475</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="J22" t="n">
         <v>106.1122152511379</v>
       </c>
       <c r="K22" t="n">
-        <v>452.8273439782433</v>
+        <v>202.912315818696</v>
       </c>
       <c r="L22" t="n">
-        <v>576.6981455965412</v>
+        <v>554.1085916646776</v>
       </c>
       <c r="M22" t="n">
-        <v>1160.879221014856</v>
+        <v>1138.289667082993</v>
       </c>
       <c r="N22" t="n">
-        <v>1288.378132818746</v>
+        <v>1708.047382044527</v>
       </c>
       <c r="O22" t="n">
-        <v>1825.813263392289</v>
+        <v>1825.813263392288</v>
       </c>
       <c r="P22" t="n">
         <v>2274.089213540314</v>
       </c>
       <c r="Q22" t="n">
-        <v>2343.85648477097</v>
+        <v>2343.856484770969</v>
       </c>
       <c r="R22" t="n">
         <v>2360.327577447737</v>
       </c>
       <c r="S22" t="n">
-        <v>2229.084291108516</v>
+        <v>2229.084291108515</v>
       </c>
       <c r="T22" t="n">
-        <v>2000.020319168466</v>
+        <v>2000.020319168465</v>
       </c>
       <c r="U22" t="n">
         <v>1734.816939373752</v>
@@ -5952,10 +5952,10 @@
         <v>1202.201531143561</v>
       </c>
       <c r="X22" t="n">
-        <v>969.9930286335166</v>
+        <v>969.9930286335173</v>
       </c>
       <c r="Y22" t="n">
-        <v>969.9930286335166</v>
+        <v>755.7566101041691</v>
       </c>
     </row>
     <row r="23">
@@ -5965,76 +5965,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1738.798338927739</v>
+        <v>1738.798338927738</v>
       </c>
       <c r="C23" t="n">
-        <v>1313.839118267706</v>
+        <v>1313.839118267705</v>
       </c>
       <c r="D23" t="n">
-        <v>891.1125855986937</v>
+        <v>891.1125855986932</v>
       </c>
       <c r="E23" t="n">
-        <v>470.5210929135323</v>
+        <v>470.521092913532</v>
       </c>
       <c r="F23" t="n">
-        <v>55.8369154792834</v>
+        <v>55.83691547928333</v>
       </c>
       <c r="G23" t="n">
-        <v>55.8369154792834</v>
+        <v>55.83691547928333</v>
       </c>
       <c r="H23" t="n">
-        <v>55.8369154792834</v>
+        <v>55.83691547928333</v>
       </c>
       <c r="I23" t="n">
-        <v>127.036865730464</v>
+        <v>127.0368657304639</v>
       </c>
       <c r="J23" t="n">
-        <v>284.6836409739093</v>
+        <v>284.6836409739092</v>
       </c>
       <c r="K23" t="n">
-        <v>520.9552913531302</v>
+        <v>943.8431239392313</v>
       </c>
       <c r="L23" t="n">
-        <v>814.0711662170309</v>
+        <v>1236.958998803132</v>
       </c>
       <c r="M23" t="n">
-        <v>1140.219054385818</v>
+        <v>1563.106886971919</v>
       </c>
       <c r="N23" t="n">
-        <v>1471.644356362295</v>
+        <v>1894.532188948396</v>
       </c>
       <c r="O23" t="n">
-        <v>1784.599870903588</v>
+        <v>2207.487703489689</v>
       </c>
       <c r="P23" t="n">
-        <v>2051.700162082857</v>
+        <v>2474.587994668958</v>
       </c>
       <c r="Q23" t="n">
-        <v>2675.169189680029</v>
+        <v>2675.169189680026</v>
       </c>
       <c r="R23" t="n">
-        <v>2791.84577396417</v>
+        <v>2791.845773964166</v>
       </c>
       <c r="S23" t="n">
-        <v>2764.56265633551</v>
+        <v>2764.562656335507</v>
       </c>
       <c r="T23" t="n">
-        <v>2764.56265633551</v>
+        <v>2565.974656961163</v>
       </c>
       <c r="U23" t="n">
-        <v>2518.675217013568</v>
+        <v>2565.974656961163</v>
       </c>
       <c r="V23" t="n">
-        <v>2518.675217013568</v>
+        <v>2216.540959051533</v>
       </c>
       <c r="W23" t="n">
-        <v>2518.675217013568</v>
+        <v>2151.914657256103</v>
       </c>
       <c r="X23" t="n">
-        <v>2112.716005749422</v>
+        <v>2151.914657256103</v>
       </c>
       <c r="Y23" t="n">
-        <v>2112.716005749422</v>
+        <v>2151.914657256103</v>
       </c>
     </row>
     <row r="24">
@@ -6044,40 +6044,40 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>551.2016689967195</v>
+        <v>551.2016689967194</v>
       </c>
       <c r="C24" t="n">
-        <v>444.7452078333617</v>
+        <v>444.7452078333616</v>
       </c>
       <c r="D24" t="n">
-        <v>349.654918979915</v>
+        <v>349.6549189799149</v>
       </c>
       <c r="E24" t="n">
-        <v>255.5345043068687</v>
+        <v>255.5345043068686</v>
       </c>
       <c r="F24" t="n">
-        <v>172.1506659230303</v>
+        <v>172.1506659230302</v>
       </c>
       <c r="G24" t="n">
-        <v>87.77956551268716</v>
+        <v>87.77956551268707</v>
       </c>
       <c r="H24" t="n">
-        <v>55.8369154792834</v>
+        <v>55.83691547928333</v>
       </c>
       <c r="I24" t="n">
-        <v>90.05365165075952</v>
+        <v>90.05365165075932</v>
       </c>
       <c r="J24" t="n">
-        <v>183.9469909972267</v>
+        <v>183.9469909972265</v>
       </c>
       <c r="K24" t="n">
-        <v>344.425663051397</v>
+        <v>344.4256630513967</v>
       </c>
       <c r="L24" t="n">
-        <v>560.2090419264192</v>
+        <v>560.209041926419</v>
       </c>
       <c r="M24" t="n">
-        <v>812.0180672291167</v>
+        <v>812.0180672291165</v>
       </c>
       <c r="N24" t="n">
         <v>1070.491728150437</v>
@@ -6089,31 +6089,31 @@
         <v>1496.718931529773</v>
       </c>
       <c r="Q24" t="n">
-        <v>1623.578025738008</v>
+        <v>1623.578025738007</v>
       </c>
       <c r="R24" t="n">
-        <v>1685.281480163921</v>
+        <v>1685.28148016392</v>
       </c>
       <c r="S24" t="n">
         <v>1640.660449563655</v>
       </c>
       <c r="T24" t="n">
-        <v>1514.568894439308</v>
+        <v>1514.568894439307</v>
       </c>
       <c r="U24" t="n">
-        <v>1338.299057263189</v>
+        <v>1338.299057263188</v>
       </c>
       <c r="V24" t="n">
         <v>1139.181539325188</v>
       </c>
       <c r="W24" t="n">
-        <v>953.858785058382</v>
+        <v>953.8587850583817</v>
       </c>
       <c r="X24" t="n">
-        <v>798.9913492972619</v>
+        <v>798.9913492972618</v>
       </c>
       <c r="Y24" t="n">
-        <v>672.5055700764826</v>
+        <v>672.5055700764825</v>
       </c>
     </row>
     <row r="25">
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>1008.639440058157</v>
+        <v>1008.639440058154</v>
       </c>
       <c r="C25" t="n">
-        <v>849.2609806979251</v>
+        <v>849.2609806979228</v>
       </c>
       <c r="D25" t="n">
-        <v>696.5662400559911</v>
+        <v>696.5662400559891</v>
       </c>
       <c r="E25" t="n">
-        <v>539.9914884632717</v>
+        <v>539.9914884632699</v>
       </c>
       <c r="F25" t="n">
-        <v>376.4676865815712</v>
+        <v>376.4676865815698</v>
       </c>
       <c r="G25" t="n">
-        <v>224.9097583506327</v>
+        <v>224.9097583506322</v>
       </c>
       <c r="H25" t="n">
-        <v>105.748949886492</v>
+        <v>105.7489498864917</v>
       </c>
       <c r="I25" t="n">
-        <v>55.8369154792834</v>
+        <v>55.83691547928333</v>
       </c>
       <c r="J25" t="n">
-        <v>201.3222643461564</v>
+        <v>201.3222643461563</v>
       </c>
       <c r="K25" t="n">
-        <v>572.8808194848501</v>
+        <v>572.88081948485</v>
       </c>
       <c r="L25" t="n">
-        <v>1114.961502871109</v>
+        <v>696.751621103148</v>
       </c>
       <c r="M25" t="n">
-        <v>1245.565895209638</v>
+        <v>1286.83988062259</v>
       </c>
       <c r="N25" t="n">
-        <v>1551.703554470846</v>
+        <v>1856.597595584125</v>
       </c>
       <c r="O25" t="n">
-        <v>2089.138685044389</v>
+        <v>2394.032726157668</v>
       </c>
       <c r="P25" t="n">
-        <v>2537.414635192415</v>
+        <v>2537.414635192411</v>
       </c>
       <c r="Q25" t="n">
-        <v>2775.374681287402</v>
+        <v>2775.374681287399</v>
       </c>
       <c r="R25" t="n">
-        <v>2791.84577396417</v>
+        <v>2791.845773964166</v>
       </c>
       <c r="S25" t="n">
-        <v>2660.602487624948</v>
+        <v>2660.602487624944</v>
       </c>
       <c r="T25" t="n">
-        <v>2431.538515684898</v>
+        <v>2431.538515684895</v>
       </c>
       <c r="U25" t="n">
-        <v>2166.335135890184</v>
+        <v>2166.335135890181</v>
       </c>
       <c r="V25" t="n">
-        <v>1892.562879917158</v>
+        <v>1892.562879917155</v>
       </c>
       <c r="W25" t="n">
-        <v>1633.719727659993</v>
+        <v>1633.71972765999</v>
       </c>
       <c r="X25" t="n">
-        <v>1401.511225149949</v>
+        <v>1401.511225149946</v>
       </c>
       <c r="Y25" t="n">
-        <v>1187.2748066206</v>
+        <v>1187.274806620598</v>
       </c>
     </row>
     <row r="26">
@@ -6202,19 +6202,19 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1761.294983468407</v>
+        <v>1361.792292147884</v>
       </c>
       <c r="C26" t="n">
-        <v>1323.152510651831</v>
+        <v>923.6498193313078</v>
       </c>
       <c r="D26" t="n">
-        <v>887.2427258262751</v>
+        <v>487.7400345057522</v>
       </c>
       <c r="E26" t="n">
-        <v>887.2427258262751</v>
+        <v>487.7400345057522</v>
       </c>
       <c r="F26" t="n">
-        <v>459.3752962354828</v>
+        <v>59.87260491495993</v>
       </c>
       <c r="G26" t="n">
         <v>59.87260491495993</v>
@@ -6253,25 +6253,25 @@
         <v>2993.630245747996</v>
       </c>
       <c r="S26" t="n">
-        <v>2993.630245747996</v>
+        <v>2953.163875962794</v>
       </c>
       <c r="T26" t="n">
-        <v>2993.630245747996</v>
+        <v>2741.392624431906</v>
       </c>
       <c r="U26" t="n">
-        <v>2993.630245747996</v>
+        <v>2482.32193295342</v>
       </c>
       <c r="V26" t="n">
-        <v>2631.013295681823</v>
+        <v>2119.704982887246</v>
       </c>
       <c r="W26" t="n">
-        <v>2588.723570589443</v>
+        <v>1780.934755568574</v>
       </c>
       <c r="X26" t="n">
-        <v>2169.581107168754</v>
+        <v>1361.792292147884</v>
       </c>
       <c r="Y26" t="n">
-        <v>1761.294983468407</v>
+        <v>1361.792292147884</v>
       </c>
     </row>
     <row r="27">
@@ -6287,16 +6287,16 @@
         <v>448.7808972690382</v>
       </c>
       <c r="D27" t="n">
-        <v>353.6906084155915</v>
+        <v>353.6906084155914</v>
       </c>
       <c r="E27" t="n">
-        <v>259.5701937425452</v>
+        <v>259.5701937425451</v>
       </c>
       <c r="F27" t="n">
-        <v>176.1863553587068</v>
+        <v>176.1863553587067</v>
       </c>
       <c r="G27" t="n">
-        <v>91.81525494836367</v>
+        <v>91.81525494836369</v>
       </c>
       <c r="H27" t="n">
         <v>59.87260491495993</v>
@@ -6308,10 +6308,10 @@
         <v>187.9826804329032</v>
       </c>
       <c r="K27" t="n">
-        <v>348.4613524870733</v>
+        <v>348.4613524870734</v>
       </c>
       <c r="L27" t="n">
-        <v>564.2447313620956</v>
+        <v>564.2447313620958</v>
       </c>
       <c r="M27" t="n">
         <v>816.053756664793</v>
@@ -6363,19 +6363,19 @@
         <v>1104.957894589636</v>
       </c>
       <c r="C28" t="n">
-        <v>932.3961830728615</v>
+        <v>932.3961830728614</v>
       </c>
       <c r="D28" t="n">
         <v>766.5181902743841</v>
       </c>
       <c r="E28" t="n">
-        <v>596.7601865251214</v>
+        <v>596.7601865251213</v>
       </c>
       <c r="F28" t="n">
-        <v>420.0531324868776</v>
+        <v>420.0531324868775</v>
       </c>
       <c r="G28" t="n">
-        <v>255.311952099396</v>
+        <v>255.3119520993959</v>
       </c>
       <c r="H28" t="n">
         <v>122.9678914787119</v>
@@ -6384,25 +6384,25 @@
         <v>59.87260491495993</v>
       </c>
       <c r="J28" t="n">
-        <v>205.3579537818329</v>
+        <v>118.7782686171431</v>
       </c>
       <c r="K28" t="n">
-        <v>511.0452355683503</v>
+        <v>219.7541432517691</v>
       </c>
       <c r="L28" t="n">
-        <v>1053.125918954609</v>
+        <v>761.8348266380279</v>
       </c>
       <c r="M28" t="n">
-        <v>1183.730311293139</v>
+        <v>1351.92308615747</v>
       </c>
       <c r="N28" t="n">
-        <v>1753.488026254673</v>
+        <v>1921.680801119005</v>
       </c>
       <c r="O28" t="n">
-        <v>2290.923156828216</v>
+        <v>2459.115931692548</v>
       </c>
       <c r="P28" t="n">
-        <v>2739.199106976241</v>
+        <v>2907.391881840573</v>
       </c>
       <c r="Q28" t="n">
         <v>2977.159153071229</v>
@@ -6414,22 +6414,22 @@
         <v>2849.203707252231</v>
       </c>
       <c r="T28" t="n">
-        <v>2606.956483155637</v>
+        <v>2606.956483155638</v>
       </c>
       <c r="U28" t="n">
-        <v>2328.569851204381</v>
+        <v>2328.56985120438</v>
       </c>
       <c r="V28" t="n">
         <v>2041.614343074811</v>
       </c>
       <c r="W28" t="n">
-        <v>1769.587938661103</v>
+        <v>1769.587938661102</v>
       </c>
       <c r="X28" t="n">
         <v>1524.196183994515</v>
       </c>
       <c r="Y28" t="n">
-        <v>1296.776513308624</v>
+        <v>1296.776513308623</v>
       </c>
     </row>
     <row r="29">
@@ -6439,25 +6439,25 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1595.106750098941</v>
+        <v>1631.513843603974</v>
       </c>
       <c r="C29" t="n">
-        <v>1156.964277282364</v>
+        <v>1193.371370787397</v>
       </c>
       <c r="D29" t="n">
-        <v>1156.964277282364</v>
+        <v>757.4615859618418</v>
       </c>
       <c r="E29" t="n">
-        <v>1156.964277282364</v>
+        <v>757.4615859618418</v>
       </c>
       <c r="F29" t="n">
-        <v>729.0968476915723</v>
+        <v>329.5941563710495</v>
       </c>
       <c r="G29" t="n">
         <v>329.5941563710495</v>
       </c>
       <c r="H29" t="n">
-        <v>59.87260491495994</v>
+        <v>59.87260491495993</v>
       </c>
       <c r="I29" t="n">
         <v>131.0725551661405</v>
@@ -6484,31 +6484,31 @@
         <v>2055.735851518534</v>
       </c>
       <c r="Q29" t="n">
-        <v>2796.659337341163</v>
+        <v>2707.799596710799</v>
       </c>
       <c r="R29" t="n">
-        <v>2993.630245747997</v>
+        <v>2993.630245747996</v>
       </c>
       <c r="S29" t="n">
-        <v>2993.630245747997</v>
+        <v>2953.163875962794</v>
       </c>
       <c r="T29" t="n">
-        <v>2781.858994217109</v>
+        <v>2741.392624431906</v>
       </c>
       <c r="U29" t="n">
-        <v>2522.788302738623</v>
+        <v>2741.392624431906</v>
       </c>
       <c r="V29" t="n">
-        <v>2160.17135267245</v>
+        <v>2741.392624431906</v>
       </c>
       <c r="W29" t="n">
-        <v>2160.17135267245</v>
+        <v>2336.537169842939</v>
       </c>
       <c r="X29" t="n">
-        <v>1741.028889251761</v>
+        <v>2336.537169842939</v>
       </c>
       <c r="Y29" t="n">
-        <v>1595.106750098941</v>
+        <v>1928.251046142592</v>
       </c>
     </row>
     <row r="30">
@@ -6524,19 +6524,19 @@
         <v>448.7808972690382</v>
       </c>
       <c r="D30" t="n">
-        <v>353.6906084155914</v>
+        <v>353.6906084155915</v>
       </c>
       <c r="E30" t="n">
-        <v>259.5701937425451</v>
+        <v>259.5701937425452</v>
       </c>
       <c r="F30" t="n">
-        <v>176.1863553587067</v>
+        <v>176.1863553587068</v>
       </c>
       <c r="G30" t="n">
-        <v>91.81525494836369</v>
+        <v>91.81525494836367</v>
       </c>
       <c r="H30" t="n">
-        <v>59.87260491495994</v>
+        <v>59.87260491495993</v>
       </c>
       <c r="I30" t="n">
         <v>94.08934108643605</v>
@@ -6551,7 +6551,7 @@
         <v>564.2447313620958</v>
       </c>
       <c r="M30" t="n">
-        <v>816.053756664793</v>
+        <v>816.0537566647931</v>
       </c>
       <c r="N30" t="n">
         <v>1074.527417586113</v>
@@ -6600,37 +6600,37 @@
         <v>1104.957894589636</v>
       </c>
       <c r="C31" t="n">
-        <v>932.3961830728613</v>
+        <v>932.3961830728614</v>
       </c>
       <c r="D31" t="n">
         <v>766.5181902743841</v>
       </c>
       <c r="E31" t="n">
-        <v>596.7601865251213</v>
+        <v>596.7601865251214</v>
       </c>
       <c r="F31" t="n">
-        <v>420.0531324868775</v>
+        <v>420.0531324868776</v>
       </c>
       <c r="G31" t="n">
         <v>255.311952099396</v>
       </c>
       <c r="H31" t="n">
-        <v>122.9678914787117</v>
+        <v>122.9678914787119</v>
       </c>
       <c r="I31" t="n">
-        <v>59.87260491495994</v>
+        <v>59.87260491495993</v>
       </c>
       <c r="J31" t="n">
-        <v>118.7782686171431</v>
+        <v>205.3579537818329</v>
       </c>
       <c r="K31" t="n">
-        <v>215.5783691847013</v>
+        <v>576.9165089205267</v>
       </c>
       <c r="L31" t="n">
-        <v>757.6590525709603</v>
+        <v>1118.997192306786</v>
       </c>
       <c r="M31" t="n">
-        <v>1347.747312090403</v>
+        <v>1249.601584645315</v>
       </c>
       <c r="N31" t="n">
         <v>1753.488026254673</v>
@@ -6639,28 +6639,28 @@
         <v>2290.923156828216</v>
       </c>
       <c r="P31" t="n">
-        <v>2739.199106976242</v>
+        <v>2739.199106976241</v>
       </c>
       <c r="Q31" t="n">
         <v>2977.159153071229</v>
       </c>
       <c r="R31" t="n">
-        <v>2993.630245747997</v>
+        <v>2993.630245747996</v>
       </c>
       <c r="S31" t="n">
-        <v>2849.203707252232</v>
+        <v>2849.203707252231</v>
       </c>
       <c r="T31" t="n">
         <v>2606.956483155638</v>
       </c>
       <c r="U31" t="n">
-        <v>2328.569851204381</v>
+        <v>2328.56985120438</v>
       </c>
       <c r="V31" t="n">
         <v>2041.614343074811</v>
       </c>
       <c r="W31" t="n">
-        <v>1769.587938661103</v>
+        <v>1769.587938661102</v>
       </c>
       <c r="X31" t="n">
         <v>1524.196183994515</v>
@@ -6676,22 +6676,22 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1950.703969143234</v>
+        <v>1358.262884186617</v>
       </c>
       <c r="C32" t="n">
-        <v>1590.739022124069</v>
+        <v>1358.262884186617</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.739022124069</v>
+        <v>922.3530993610616</v>
       </c>
       <c r="E32" t="n">
-        <v>1156.964277282364</v>
+        <v>488.5783545193568</v>
       </c>
       <c r="F32" t="n">
-        <v>729.0968476915723</v>
+        <v>60.71092492856451</v>
       </c>
       <c r="G32" t="n">
-        <v>329.5941563710495</v>
+        <v>60.71092492856451</v>
       </c>
       <c r="H32" t="n">
         <v>59.87260491495993</v>
@@ -6700,25 +6700,25 @@
         <v>131.0725551661405</v>
       </c>
       <c r="J32" t="n">
-        <v>330.7036967446321</v>
+        <v>723.9740178625037</v>
       </c>
       <c r="K32" t="n">
-        <v>566.975347123853</v>
+        <v>960.2456682417247</v>
       </c>
       <c r="L32" t="n">
-        <v>860.0912219877537</v>
+        <v>1253.361543105625</v>
       </c>
       <c r="M32" t="n">
-        <v>1186.239110156541</v>
+        <v>1579.509431274412</v>
       </c>
       <c r="N32" t="n">
-        <v>1927.16259597917</v>
+        <v>1910.93473325089</v>
       </c>
       <c r="O32" t="n">
-        <v>2240.118110520462</v>
+        <v>2223.890247792182</v>
       </c>
       <c r="P32" t="n">
-        <v>2507.218401699732</v>
+        <v>2490.990538971451</v>
       </c>
       <c r="Q32" t="n">
         <v>2707.799596710799</v>
@@ -6727,25 +6727,25 @@
         <v>2993.630245747996</v>
       </c>
       <c r="S32" t="n">
-        <v>2993.630245747996</v>
+        <v>2953.163875962794</v>
       </c>
       <c r="T32" t="n">
-        <v>2781.858994217109</v>
+        <v>2953.163875962794</v>
       </c>
       <c r="U32" t="n">
-        <v>2781.858994217109</v>
+        <v>2953.163875962794</v>
       </c>
       <c r="V32" t="n">
-        <v>2781.858994217109</v>
+        <v>2590.54692589662</v>
       </c>
       <c r="W32" t="n">
-        <v>2377.003539628142</v>
+        <v>2185.691471307653</v>
       </c>
       <c r="X32" t="n">
-        <v>2377.003539628142</v>
+        <v>1766.549007886964</v>
       </c>
       <c r="Y32" t="n">
-        <v>2377.003539628142</v>
+        <v>1358.262884186617</v>
       </c>
     </row>
     <row r="33">
@@ -6779,16 +6779,16 @@
         <v>94.08934108643605</v>
       </c>
       <c r="J33" t="n">
-        <v>187.9826804329032</v>
+        <v>187.9826804329031</v>
       </c>
       <c r="K33" t="n">
-        <v>348.4613524870734</v>
+        <v>348.4613524870733</v>
       </c>
       <c r="L33" t="n">
-        <v>564.2447313620958</v>
+        <v>564.2447313620956</v>
       </c>
       <c r="M33" t="n">
-        <v>816.0537566647931</v>
+        <v>816.053756664793</v>
       </c>
       <c r="N33" t="n">
         <v>1074.527417586113</v>
@@ -6837,19 +6837,19 @@
         <v>1104.957894589636</v>
       </c>
       <c r="C34" t="n">
-        <v>932.396183072861</v>
+        <v>932.3961830728615</v>
       </c>
       <c r="D34" t="n">
-        <v>766.5181902743838</v>
+        <v>766.5181902743841</v>
       </c>
       <c r="E34" t="n">
-        <v>596.7601865251211</v>
+        <v>596.7601865251214</v>
       </c>
       <c r="F34" t="n">
-        <v>420.0531324868773</v>
+        <v>420.0531324868776</v>
       </c>
       <c r="G34" t="n">
-        <v>255.3119520993957</v>
+        <v>255.3119520993961</v>
       </c>
       <c r="H34" t="n">
         <v>122.9678914787119</v>
@@ -6858,16 +6858,16 @@
         <v>59.87260491495993</v>
       </c>
       <c r="J34" t="n">
-        <v>118.7782686171431</v>
+        <v>205.3579537818329</v>
       </c>
       <c r="K34" t="n">
-        <v>215.5783691847013</v>
+        <v>576.9165089205267</v>
       </c>
       <c r="L34" t="n">
-        <v>593.6420517736962</v>
+        <v>1118.997192306786</v>
       </c>
       <c r="M34" t="n">
-        <v>1183.730311293139</v>
+        <v>1249.601584645315</v>
       </c>
       <c r="N34" t="n">
         <v>1753.488026254673</v>
@@ -6891,19 +6891,19 @@
         <v>2606.956483155638</v>
       </c>
       <c r="U34" t="n">
-        <v>2328.56985120438</v>
+        <v>2328.569851204381</v>
       </c>
       <c r="V34" t="n">
         <v>2041.614343074811</v>
       </c>
       <c r="W34" t="n">
-        <v>1769.587938661102</v>
+        <v>1769.587938661103</v>
       </c>
       <c r="X34" t="n">
         <v>1524.196183994515</v>
       </c>
       <c r="Y34" t="n">
-        <v>1296.776513308623</v>
+        <v>1296.776513308624</v>
       </c>
     </row>
     <row r="35">
@@ -6913,19 +6913,19 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1349.126238781879</v>
+        <v>446.7092428694776</v>
       </c>
       <c r="C35" t="n">
-        <v>910.9837659653025</v>
+        <v>446.7092428694776</v>
       </c>
       <c r="D35" t="n">
-        <v>475.073981139747</v>
+        <v>446.7092428694776</v>
       </c>
       <c r="E35" t="n">
-        <v>475.073981139747</v>
+        <v>446.7092428694776</v>
       </c>
       <c r="F35" t="n">
-        <v>47.20655154895474</v>
+        <v>446.7092428694776</v>
       </c>
       <c r="G35" t="n">
         <v>47.20655154895474</v>
@@ -6937,16 +6937,16 @@
         <v>118.4065018001353</v>
       </c>
       <c r="J35" t="n">
-        <v>276.0532770435806</v>
+        <v>276.0532770435809</v>
       </c>
       <c r="K35" t="n">
-        <v>512.3249274228016</v>
+        <v>512.3249274228019</v>
       </c>
       <c r="L35" t="n">
-        <v>805.4408022867023</v>
+        <v>805.4408022867025</v>
       </c>
       <c r="M35" t="n">
-        <v>1131.588690455489</v>
+        <v>1131.58869045549</v>
       </c>
       <c r="N35" t="n">
         <v>1463.013992431967</v>
@@ -6955,7 +6955,7 @@
         <v>1775.96950697326</v>
       </c>
       <c r="P35" t="n">
-        <v>2043.069798152528</v>
+        <v>2043.069798152529</v>
       </c>
       <c r="Q35" t="n">
         <v>2243.650993163596</v>
@@ -6967,22 +6967,22 @@
         <v>2360.327577447737</v>
       </c>
       <c r="T35" t="n">
-        <v>2360.327577447737</v>
+        <v>2148.556325916849</v>
       </c>
       <c r="U35" t="n">
-        <v>2360.327577447737</v>
+        <v>1889.485634438363</v>
       </c>
       <c r="V35" t="n">
-        <v>2360.327577447737</v>
+        <v>1697.006731364041</v>
       </c>
       <c r="W35" t="n">
-        <v>2183.711932967134</v>
+        <v>1292.151276775075</v>
       </c>
       <c r="X35" t="n">
-        <v>2183.711932967134</v>
+        <v>873.0088133543854</v>
       </c>
       <c r="Y35" t="n">
-        <v>1775.425809266787</v>
+        <v>873.0088133543854</v>
       </c>
     </row>
     <row r="36">
@@ -7071,19 +7071,19 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>927.5506608361497</v>
+        <v>745.8267834361247</v>
       </c>
       <c r="C37" t="n">
-        <v>754.9889493193747</v>
+        <v>573.2650719193497</v>
       </c>
       <c r="D37" t="n">
-        <v>589.1109565208974</v>
+        <v>407.3870791208724</v>
       </c>
       <c r="E37" t="n">
-        <v>419.3529527716346</v>
+        <v>407.3870791208724</v>
       </c>
       <c r="F37" t="n">
-        <v>242.6458987333908</v>
+        <v>407.3870791208724</v>
       </c>
       <c r="G37" t="n">
         <v>242.6458987333908</v>
@@ -7095,25 +7095,25 @@
         <v>47.20655154895474</v>
       </c>
       <c r="J37" t="n">
-        <v>192.6919004158277</v>
+        <v>106.1122152511379</v>
       </c>
       <c r="K37" t="n">
-        <v>564.2504555545214</v>
+        <v>477.6707703898317</v>
       </c>
       <c r="L37" t="n">
-        <v>688.1212571728194</v>
+        <v>1019.751453776091</v>
       </c>
       <c r="M37" t="n">
-        <v>1272.302332591134</v>
+        <v>1150.35584611462</v>
       </c>
       <c r="N37" t="n">
-        <v>1399.801244395024</v>
+        <v>1277.854757918509</v>
       </c>
       <c r="O37" t="n">
-        <v>1937.236374968567</v>
+        <v>1815.289888492053</v>
       </c>
       <c r="P37" t="n">
-        <v>2105.896438675982</v>
+        <v>2263.565838640078</v>
       </c>
       <c r="Q37" t="n">
         <v>2343.856484770969</v>
@@ -7125,22 +7125,22 @@
         <v>2215.901038951972</v>
       </c>
       <c r="T37" t="n">
-        <v>2215.901038951972</v>
+        <v>2020.405701316234</v>
       </c>
       <c r="U37" t="n">
-        <v>1937.514407000715</v>
+        <v>1742.019069364977</v>
       </c>
       <c r="V37" t="n">
-        <v>1864.207109321325</v>
+        <v>1455.063561235408</v>
       </c>
       <c r="W37" t="n">
-        <v>1592.180704907616</v>
+        <v>1183.037156821699</v>
       </c>
       <c r="X37" t="n">
-        <v>1346.788950241029</v>
+        <v>937.6454021551119</v>
       </c>
       <c r="Y37" t="n">
-        <v>1119.369279555137</v>
+        <v>937.6454021551119</v>
       </c>
     </row>
     <row r="38">
@@ -7150,22 +7150,22 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1335.414747627536</v>
+        <v>1485.27551347728</v>
       </c>
       <c r="C38" t="n">
-        <v>1144.298223916359</v>
+        <v>1047.133040660703</v>
       </c>
       <c r="D38" t="n">
-        <v>1144.298223916359</v>
+        <v>611.2232558351475</v>
       </c>
       <c r="E38" t="n">
-        <v>1144.298223916359</v>
+        <v>611.2232558351475</v>
       </c>
       <c r="F38" t="n">
-        <v>716.4307943255671</v>
+        <v>446.7092428694776</v>
       </c>
       <c r="G38" t="n">
-        <v>316.9281030050443</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="H38" t="n">
         <v>47.20655154895474</v>
@@ -7201,25 +7201,25 @@
         <v>2360.327577447737</v>
       </c>
       <c r="S38" t="n">
-        <v>2360.327577447737</v>
+        <v>2319.861207662534</v>
       </c>
       <c r="T38" t="n">
-        <v>2148.556325916849</v>
+        <v>2319.861207662534</v>
       </c>
       <c r="U38" t="n">
-        <v>2148.556325916849</v>
+        <v>2319.861207662534</v>
       </c>
       <c r="V38" t="n">
-        <v>2148.556325916849</v>
+        <v>2319.861207662534</v>
       </c>
       <c r="W38" t="n">
-        <v>1743.700871327883</v>
+        <v>2319.861207662534</v>
       </c>
       <c r="X38" t="n">
-        <v>1743.700871327883</v>
+        <v>2319.861207662534</v>
       </c>
       <c r="Y38" t="n">
-        <v>1335.414747627536</v>
+        <v>1911.575083962187</v>
       </c>
     </row>
     <row r="39">
@@ -7308,25 +7308,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>927.5506608361497</v>
+        <v>521.8703274356767</v>
       </c>
       <c r="C40" t="n">
-        <v>754.9889493193747</v>
+        <v>349.3086159189016</v>
       </c>
       <c r="D40" t="n">
-        <v>589.1109565208974</v>
+        <v>349.3086159189016</v>
       </c>
       <c r="E40" t="n">
-        <v>419.3529527716346</v>
+        <v>179.5506121696388</v>
       </c>
       <c r="F40" t="n">
-        <v>242.6458987333908</v>
+        <v>179.5506121696388</v>
       </c>
       <c r="G40" t="n">
-        <v>242.6458987333908</v>
+        <v>179.5506121696388</v>
       </c>
       <c r="H40" t="n">
-        <v>110.3018381127067</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="I40" t="n">
         <v>47.20655154895474</v>
@@ -7344,13 +7344,13 @@
         <v>1150.35584611462</v>
       </c>
       <c r="N40" t="n">
-        <v>1539.854607180195</v>
+        <v>1277.854757918509</v>
       </c>
       <c r="O40" t="n">
-        <v>1657.620488527957</v>
+        <v>1815.289888492053</v>
       </c>
       <c r="P40" t="n">
-        <v>2105.896438675982</v>
+        <v>2263.565838640078</v>
       </c>
       <c r="Q40" t="n">
         <v>2343.856484770969</v>
@@ -7359,25 +7359,25 @@
         <v>2360.327577447737</v>
       </c>
       <c r="S40" t="n">
-        <v>2215.901038951972</v>
+        <v>2266.116140098271</v>
       </c>
       <c r="T40" t="n">
-        <v>1973.653814855378</v>
+        <v>2023.868916001678</v>
       </c>
       <c r="U40" t="n">
-        <v>1864.207109321325</v>
+        <v>1745.482284050421</v>
       </c>
       <c r="V40" t="n">
-        <v>1864.207109321325</v>
+        <v>1458.526775920852</v>
       </c>
       <c r="W40" t="n">
-        <v>1592.180704907616</v>
+        <v>1186.500371507143</v>
       </c>
       <c r="X40" t="n">
-        <v>1346.788950241029</v>
+        <v>941.1086168405557</v>
       </c>
       <c r="Y40" t="n">
-        <v>1119.369279555137</v>
+        <v>713.6889461546639</v>
       </c>
     </row>
     <row r="41">
@@ -7387,40 +7387,40 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1492.432620541498</v>
+        <v>1320.76150051161</v>
       </c>
       <c r="C41" t="n">
-        <v>1054.290147724922</v>
+        <v>882.6190276950331</v>
       </c>
       <c r="D41" t="n">
-        <v>744.7955325958366</v>
+        <v>446.7092428694776</v>
       </c>
       <c r="E41" t="n">
-        <v>744.7955325958366</v>
+        <v>446.7092428694776</v>
       </c>
       <c r="F41" t="n">
-        <v>316.9281030050443</v>
+        <v>446.7092428694776</v>
       </c>
       <c r="G41" t="n">
-        <v>316.9281030050443</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="H41" t="n">
         <v>47.20655154895474</v>
       </c>
       <c r="I41" t="n">
-        <v>118.4065018001355</v>
+        <v>118.4065018001353</v>
       </c>
       <c r="J41" t="n">
-        <v>276.0532770435808</v>
+        <v>276.0532770435806</v>
       </c>
       <c r="K41" t="n">
-        <v>512.3249274228018</v>
+        <v>512.3249274228016</v>
       </c>
       <c r="L41" t="n">
-        <v>805.4408022867025</v>
+        <v>805.4408022867023</v>
       </c>
       <c r="M41" t="n">
-        <v>1131.58869045549</v>
+        <v>1131.588690455489</v>
       </c>
       <c r="N41" t="n">
         <v>1463.013992431967</v>
@@ -7429,7 +7429,7 @@
         <v>1775.96950697326</v>
       </c>
       <c r="P41" t="n">
-        <v>2043.069798152529</v>
+        <v>2043.069798152528</v>
       </c>
       <c r="Q41" t="n">
         <v>2243.650993163596</v>
@@ -7438,25 +7438,25 @@
         <v>2360.327577447737</v>
       </c>
       <c r="S41" t="n">
-        <v>2319.861207662534</v>
+        <v>2321.449272593579</v>
       </c>
       <c r="T41" t="n">
-        <v>2319.861207662534</v>
+        <v>2109.678021062691</v>
       </c>
       <c r="U41" t="n">
-        <v>2319.861207662534</v>
+        <v>2109.678021062691</v>
       </c>
       <c r="V41" t="n">
-        <v>2319.861207662534</v>
+        <v>1747.061070996518</v>
       </c>
       <c r="W41" t="n">
-        <v>2319.861207662534</v>
+        <v>1747.061070996518</v>
       </c>
       <c r="X41" t="n">
-        <v>1900.718744241845</v>
+        <v>1747.061070996518</v>
       </c>
       <c r="Y41" t="n">
-        <v>1492.432620541498</v>
+        <v>1747.061070996518</v>
       </c>
     </row>
     <row r="42">
@@ -7545,7 +7545,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>761.6726680376725</v>
+        <v>589.1109565208974</v>
       </c>
       <c r="C43" t="n">
         <v>589.1109565208974</v>
@@ -7569,22 +7569,22 @@
         <v>47.20655154895474</v>
       </c>
       <c r="J43" t="n">
-        <v>106.1122152511379</v>
+        <v>192.6919004158277</v>
       </c>
       <c r="K43" t="n">
-        <v>477.6707703898317</v>
+        <v>564.2504555545214</v>
       </c>
       <c r="L43" t="n">
-        <v>733.4227107706877</v>
+        <v>1106.33113894078</v>
       </c>
       <c r="M43" t="n">
-        <v>1317.603786189002</v>
+        <v>1236.93553127931</v>
       </c>
       <c r="N43" t="n">
-        <v>1887.361501150537</v>
+        <v>1364.434443083199</v>
       </c>
       <c r="O43" t="n">
-        <v>2005.127382498298</v>
+        <v>1657.620488527957</v>
       </c>
       <c r="P43" t="n">
         <v>2105.896438675982</v>
@@ -7602,19 +7602,19 @@
         <v>1973.653814855378</v>
       </c>
       <c r="U43" t="n">
-        <v>1739.892869985829</v>
+        <v>1695.267182904121</v>
       </c>
       <c r="V43" t="n">
-        <v>1452.93736185626</v>
+        <v>1408.311674774552</v>
       </c>
       <c r="W43" t="n">
-        <v>1180.910957442551</v>
+        <v>1136.285270360843</v>
       </c>
       <c r="X43" t="n">
-        <v>1180.910957442551</v>
+        <v>890.8935156942559</v>
       </c>
       <c r="Y43" t="n">
-        <v>953.4912867566595</v>
+        <v>663.4738450083642</v>
       </c>
     </row>
     <row r="44">
@@ -7624,22 +7624,22 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1681.790385646739</v>
+        <v>480.9812963906596</v>
       </c>
       <c r="C44" t="n">
-        <v>1243.647912830162</v>
+        <v>480.9812963906596</v>
       </c>
       <c r="D44" t="n">
-        <v>1150.205539167272</v>
+        <v>480.9812963906596</v>
       </c>
       <c r="E44" t="n">
-        <v>716.4307943255671</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="F44" t="n">
-        <v>716.4307943255671</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="G44" t="n">
-        <v>316.9281030050443</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="H44" t="n">
         <v>47.20655154895474</v>
@@ -7648,10 +7648,10 @@
         <v>118.4065018001353</v>
       </c>
       <c r="J44" t="n">
-        <v>276.0532770435809</v>
+        <v>276.0532770435808</v>
       </c>
       <c r="K44" t="n">
-        <v>512.3249274228019</v>
+        <v>512.3249274228018</v>
       </c>
       <c r="L44" t="n">
         <v>805.4408022867025</v>
@@ -7681,19 +7681,19 @@
         <v>2108.089956131646</v>
       </c>
       <c r="U44" t="n">
-        <v>2108.089956131646</v>
+        <v>1849.01926465316</v>
       </c>
       <c r="V44" t="n">
-        <v>2108.089956131646</v>
+        <v>1486.402314586987</v>
       </c>
       <c r="W44" t="n">
-        <v>2108.089956131646</v>
+        <v>1486.402314586987</v>
       </c>
       <c r="X44" t="n">
-        <v>2108.089956131646</v>
+        <v>1067.259851166298</v>
       </c>
       <c r="Y44" t="n">
-        <v>2108.089956131646</v>
+        <v>658.9737274659511</v>
       </c>
     </row>
     <row r="45">
@@ -7782,49 +7782,49 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>622.6448886986906</v>
+        <v>890.8935156942559</v>
       </c>
       <c r="C46" t="n">
-        <v>622.6448886986906</v>
+        <v>718.3318041774809</v>
       </c>
       <c r="D46" t="n">
-        <v>456.7668959002132</v>
+        <v>718.3318041774809</v>
       </c>
       <c r="E46" t="n">
-        <v>287.0088921509505</v>
+        <v>548.5738004282182</v>
       </c>
       <c r="F46" t="n">
-        <v>110.3018381127067</v>
+        <v>371.8667463899744</v>
       </c>
       <c r="G46" t="n">
-        <v>110.3018381127067</v>
+        <v>207.1255660024928</v>
       </c>
       <c r="H46" t="n">
-        <v>110.3018381127067</v>
+        <v>74.78150538180873</v>
       </c>
       <c r="I46" t="n">
         <v>47.20655154895474</v>
       </c>
       <c r="J46" t="n">
-        <v>106.1122152511379</v>
+        <v>192.6919004158277</v>
       </c>
       <c r="K46" t="n">
-        <v>202.912315818696</v>
+        <v>289.4920009833859</v>
       </c>
       <c r="L46" t="n">
-        <v>326.783117436994</v>
+        <v>413.3628026016839</v>
       </c>
       <c r="M46" t="n">
-        <v>910.9641928553089</v>
+        <v>997.5438780199987</v>
       </c>
       <c r="N46" t="n">
-        <v>1480.721907816843</v>
+        <v>1567.301592981533</v>
       </c>
       <c r="O46" t="n">
-        <v>1657.620488527957</v>
+        <v>2104.736723555076</v>
       </c>
       <c r="P46" t="n">
-        <v>2105.896438675982</v>
+        <v>2274.089213540314</v>
       </c>
       <c r="Q46" t="n">
         <v>2343.856484770969</v>
@@ -7851,7 +7851,7 @@
         <v>890.8935156942559</v>
       </c>
       <c r="Y46" t="n">
-        <v>814.4635074176776</v>
+        <v>890.8935156942559</v>
       </c>
     </row>
   </sheetData>
@@ -8850,25 +8850,25 @@
         <v>87.45422743908067</v>
       </c>
       <c r="K13" t="n">
-        <v>0</v>
+        <v>105.0002374943214</v>
       </c>
       <c r="L13" t="n">
         <v>422.4342240080415</v>
       </c>
       <c r="M13" t="n">
-        <v>458.1582657371572</v>
+        <v>0</v>
       </c>
       <c r="N13" t="n">
-        <v>0</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O13" t="n">
-        <v>0</v>
+        <v>423.9083325512944</v>
       </c>
       <c r="P13" t="n">
-        <v>351.0170646165068</v>
+        <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>166.4593034875529</v>
+        <v>0</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -9090,22 +9090,22 @@
         <v>277.5337924960966</v>
       </c>
       <c r="L16" t="n">
-        <v>0</v>
+        <v>45.75904403825086</v>
       </c>
       <c r="M16" t="n">
-        <v>0</v>
+        <v>458.1582657371571</v>
       </c>
       <c r="N16" t="n">
         <v>446.7260637956006</v>
       </c>
       <c r="O16" t="n">
-        <v>322.7919369410542</v>
+        <v>0</v>
       </c>
       <c r="P16" t="n">
-        <v>351.0170646165068</v>
+        <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>0</v>
+        <v>169.8916917821538</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -9321,25 +9321,25 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>87.45422743908067</v>
+        <v>0</v>
       </c>
       <c r="K19" t="n">
         <v>277.5337924960966</v>
       </c>
       <c r="L19" t="n">
-        <v>422.4342240080415</v>
+        <v>0</v>
       </c>
       <c r="M19" t="n">
-        <v>251.3747775495196</v>
+        <v>0</v>
       </c>
       <c r="N19" t="n">
         <v>446.7260637956006</v>
       </c>
       <c r="O19" t="n">
-        <v>0</v>
+        <v>423.9083325512944</v>
       </c>
       <c r="P19" t="n">
-        <v>0</v>
+        <v>337.3548964453471</v>
       </c>
       <c r="Q19" t="n">
         <v>0</v>
@@ -9561,19 +9561,19 @@
         <v>0</v>
       </c>
       <c r="K22" t="n">
-        <v>252.439422383381</v>
+        <v>0</v>
       </c>
       <c r="L22" t="n">
-        <v>0</v>
+        <v>229.6216911390744</v>
       </c>
       <c r="M22" t="n">
-        <v>458.1582657371572</v>
+        <v>458.1582657371571</v>
       </c>
       <c r="N22" t="n">
-        <v>0</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O22" t="n">
-        <v>423.9083325512944</v>
+        <v>0</v>
       </c>
       <c r="P22" t="n">
         <v>351.0170646165068</v>
@@ -9640,7 +9640,7 @@
         <v>0</v>
       </c>
       <c r="K23" t="n">
-        <v>0</v>
+        <v>427.1594268546477</v>
       </c>
       <c r="L23" t="n">
         <v>0</v>
@@ -9658,7 +9658,7 @@
         <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>427.159426854651</v>
+        <v>0</v>
       </c>
       <c r="R23" t="n">
         <v>0</v>
@@ -9801,19 +9801,19 @@
         <v>277.5337924960966</v>
       </c>
       <c r="L25" t="n">
-        <v>422.4342240080415</v>
+        <v>0</v>
       </c>
       <c r="M25" t="n">
-        <v>0</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N25" t="n">
-        <v>180.443179249816</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O25" t="n">
         <v>423.9083325512944</v>
       </c>
       <c r="P25" t="n">
-        <v>351.0170646165068</v>
+        <v>43.04328571420137</v>
       </c>
       <c r="Q25" t="n">
         <v>169.8916917821538</v>
@@ -10032,16 +10032,16 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>87.45422743908067</v>
+        <v>0</v>
       </c>
       <c r="K28" t="n">
-        <v>210.9971527464234</v>
+        <v>4.217953603098778</v>
       </c>
       <c r="L28" t="n">
         <v>422.4342240080415</v>
       </c>
       <c r="M28" t="n">
-        <v>0</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N28" t="n">
         <v>446.7260637956006</v>
@@ -10053,7 +10053,7 @@
         <v>351.0170646165068</v>
       </c>
       <c r="Q28" t="n">
-        <v>169.8916917821538</v>
+        <v>0</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -10132,10 +10132,10 @@
         <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>545.8002937490523</v>
+        <v>456.0429799810076</v>
       </c>
       <c r="R29" t="n">
-        <v>81.1053779017102</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10269,19 +10269,19 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>0</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K31" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L31" t="n">
         <v>422.4342240080415</v>
       </c>
       <c r="M31" t="n">
-        <v>464.1251183645587</v>
+        <v>0</v>
       </c>
       <c r="N31" t="n">
-        <v>281.0523256165461</v>
+        <v>380.1894240459278</v>
       </c>
       <c r="O31" t="n">
         <v>423.9083325512944</v>
@@ -10348,7 +10348,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>42.40845084348103</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K32" t="n">
         <v>0</v>
@@ -10360,7 +10360,7 @@
         <v>0</v>
       </c>
       <c r="N32" t="n">
-        <v>413.6345291375269</v>
+        <v>0</v>
       </c>
       <c r="O32" t="n">
         <v>0</v>
@@ -10369,7 +10369,7 @@
         <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>16.39178053361638</v>
       </c>
       <c r="R32" t="n">
         <v>170.8626916697543</v>
@@ -10506,19 +10506,19 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>0</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K34" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L34" t="n">
-        <v>256.7604858289868</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M34" t="n">
-        <v>464.1251183645587</v>
+        <v>0</v>
       </c>
       <c r="N34" t="n">
-        <v>446.7260637956006</v>
+        <v>380.1894240459278</v>
       </c>
       <c r="O34" t="n">
         <v>423.9083325512944</v>
@@ -10743,16 +10743,16 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>87.45422743908067</v>
+        <v>0</v>
       </c>
       <c r="K37" t="n">
         <v>277.5337924960966</v>
       </c>
       <c r="L37" t="n">
-        <v>0</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M37" t="n">
-        <v>458.1582657371569</v>
+        <v>0</v>
       </c>
       <c r="N37" t="n">
         <v>0</v>
@@ -10761,10 +10761,10 @@
         <v>423.9083325512944</v>
       </c>
       <c r="P37" t="n">
-        <v>68.57677528255726</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q37" t="n">
-        <v>169.8916917821538</v>
+        <v>10.62967161639972</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -10992,16 +10992,16 @@
         <v>0</v>
       </c>
       <c r="N40" t="n">
-        <v>264.6463123855408</v>
+        <v>0</v>
       </c>
       <c r="O40" t="n">
-        <v>0</v>
+        <v>423.9083325512944</v>
       </c>
       <c r="P40" t="n">
         <v>351.0170646165068</v>
       </c>
       <c r="Q40" t="n">
-        <v>169.8916917821538</v>
+        <v>10.62967161639972</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -11217,25 +11217,25 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>0</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K43" t="n">
         <v>277.5337924960966</v>
       </c>
       <c r="L43" t="n">
-        <v>133.2132714773314</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M43" t="n">
-        <v>458.1582657371571</v>
+        <v>0</v>
       </c>
       <c r="N43" t="n">
-        <v>446.7260637956006</v>
+        <v>0</v>
       </c>
       <c r="O43" t="n">
-        <v>0</v>
+        <v>177.1920849464602</v>
       </c>
       <c r="P43" t="n">
-        <v>0</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q43" t="n">
         <v>169.8916917821538</v>
@@ -11454,7 +11454,7 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>0</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K46" t="n">
         <v>0</v>
@@ -11463,19 +11463,19 @@
         <v>0</v>
       </c>
       <c r="M46" t="n">
-        <v>458.158265737157</v>
+        <v>458.1582657371571</v>
       </c>
       <c r="N46" t="n">
         <v>446.7260637956006</v>
       </c>
       <c r="O46" t="n">
-        <v>59.7299993569211</v>
+        <v>423.9083325512944</v>
       </c>
       <c r="P46" t="n">
-        <v>351.0170646165068</v>
+        <v>69.27619576520601</v>
       </c>
       <c r="Q46" t="n">
-        <v>169.8916917821538</v>
+        <v>0</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
@@ -23257,10 +23257,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>346.7860422752478</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>420.709628453433</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
@@ -23269,13 +23269,13 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>410.5373356599061</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>148.1979006600548</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>253.9729163065505</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -23308,25 +23308,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>27.01028645237302</v>
+        <v>27.01028645237282</v>
       </c>
       <c r="T11" t="n">
-        <v>196.602119380601</v>
+        <v>196.6021193806008</v>
       </c>
       <c r="U11" t="n">
-        <v>243.4285649287232</v>
+        <v>243.428564928723</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>345.9393609305336</v>
       </c>
       <c r="W11" t="n">
-        <v>387.7554804080991</v>
+        <v>387.7554804080988</v>
       </c>
       <c r="X11" t="n">
-        <v>401.8996191515045</v>
+        <v>401.8996191515042</v>
       </c>
       <c r="Y11" t="n">
-        <v>391.1518428283651</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -23415,19 +23415,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>176.8490128968191</v>
       </c>
       <c r="C13" t="n">
-        <v>157.7846747666294</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>155.0090040767922</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>56.45236135368368</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -23436,7 +23436,7 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>49.41291406313647</v>
+        <v>49.41291406313627</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23466,13 +23466,13 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>129.9308534758297</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>62.46617382445424</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -23494,22 +23494,22 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>408.9851551450805</v>
       </c>
       <c r="C14" t="n">
-        <v>420.709628453433</v>
+        <v>113.8315123700712</v>
       </c>
       <c r="D14" t="n">
-        <v>418.499267342322</v>
+        <v>418.4992673423217</v>
       </c>
       <c r="E14" t="n">
-        <v>416.3855777583098</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>410.5373356599064</v>
+        <v>410.5373356599061</v>
       </c>
       <c r="G14" t="n">
-        <v>382.4562447723396</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -23545,13 +23545,13 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>27.01028645237302</v>
+        <v>27.01028645237283</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>243.428564928723</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -23560,10 +23560,10 @@
         <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>401.8996191515042</v>
       </c>
       <c r="Y14" t="n">
-        <v>339.7452434396632</v>
+        <v>391.1518428283649</v>
       </c>
     </row>
     <row r="15">
@@ -23658,7 +23658,7 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>151.1677932355146</v>
+        <v>151.1677932355144</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
@@ -23667,13 +23667,13 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>150.0423489486288</v>
+        <v>100.1090465820898</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>117.9692003794991</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>49.41291406313627</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23709,7 +23709,7 @@
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>117.4488120760986</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -23731,25 +23731,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>408.9851551450805</v>
       </c>
       <c r="C17" t="n">
-        <v>420.709628453433</v>
+        <v>82.4894103988517</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>418.4992673423217</v>
       </c>
       <c r="E17" t="n">
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>391.9985241730797</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>382.4562447723394</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>253.9729163065505</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -23782,22 +23782,22 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>27.01028645237303</v>
+        <v>27.01028645237283</v>
       </c>
       <c r="T17" t="n">
-        <v>196.602119380601</v>
+        <v>196.6021193806008</v>
       </c>
       <c r="U17" t="n">
-        <v>243.4285649287232</v>
+        <v>243.428564928723</v>
       </c>
       <c r="V17" t="n">
-        <v>345.9393609305338</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>387.7554804080991</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>401.8996191515045</v>
+        <v>401.8996191515042</v>
       </c>
       <c r="Y17" t="n">
         <v>0</v>
@@ -23892,7 +23892,7 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>157.7846747666294</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -23901,10 +23901,10 @@
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>161.8885638628832</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>29.99705817670723</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -23943,13 +23943,13 @@
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>226.7733322206493</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>260.8742794936126</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
@@ -23971,10 +23971,10 @@
         <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>186.6896298091775</v>
+        <v>420.7096284534327</v>
       </c>
       <c r="D20" t="n">
-        <v>418.499267342322</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
         <v>0</v>
@@ -23983,10 +23983,10 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>382.4562447723396</v>
+        <v>382.4562447723394</v>
       </c>
       <c r="H20" t="n">
-        <v>253.9729163065507</v>
+        <v>253.9729163065505</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -24019,25 +24019,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>27.01028645237283</v>
       </c>
       <c r="T20" t="n">
-        <v>196.602119380601</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>243.4285649287232</v>
+        <v>206.3478237266518</v>
       </c>
       <c r="V20" t="n">
-        <v>345.9393609305338</v>
+        <v>345.9393609305336</v>
       </c>
       <c r="W20" t="n">
-        <v>387.7554804080991</v>
+        <v>387.7554804080988</v>
       </c>
       <c r="X20" t="n">
         <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>0</v>
+        <v>391.1518428283649</v>
       </c>
     </row>
     <row r="21">
@@ -24129,25 +24129,25 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>157.7846747666292</v>
       </c>
       <c r="D22" t="n">
-        <v>151.1677932355146</v>
+        <v>93.49216505097502</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>55.39710668067266</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>117.9692003794991</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>49.41291406313627</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24195,7 +24195,7 @@
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>212.0940543440549</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24205,7 +24205,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>38.80666499161475</v>
+        <v>0</v>
       </c>
       <c r="C23" t="n">
         <v>0</v>
@@ -24220,10 +24220,10 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>382.4562447723396</v>
+        <v>382.4562447723394</v>
       </c>
       <c r="H23" t="n">
-        <v>253.9729163065507</v>
+        <v>253.9729163065505</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -24259,22 +24259,22 @@
         <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>196.602119380601</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>243.428564928723</v>
       </c>
       <c r="V23" t="n">
-        <v>345.9393609305338</v>
+        <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>387.7554804080991</v>
+        <v>323.7754416306229</v>
       </c>
       <c r="X23" t="n">
-        <v>0</v>
+        <v>401.8996191515042</v>
       </c>
       <c r="Y23" t="n">
-        <v>391.1518428283651</v>
+        <v>391.1518428283649</v>
       </c>
     </row>
     <row r="24">
@@ -24457,7 +24457,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>395.5076644073176</v>
       </c>
       <c r="H26" t="n">
         <v>267.0243359415286</v>
@@ -24493,25 +24493,25 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>40.06170608735099</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>209.6535390155789</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>256.4799845637012</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>358.9400722016211</v>
+        <v>65.42437499759092</v>
       </c>
       <c r="X26" t="n">
         <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="27">
@@ -24679,13 +24679,13 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>422.0365747800587</v>
+        <v>128.2667442668267</v>
       </c>
       <c r="C29" t="n">
         <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E29" t="n">
         <v>429.4369973932878</v>
@@ -24694,7 +24694,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>395.5076644073176</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -24730,25 +24730,25 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>40.06170608735099</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
         <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>256.4799845637012</v>
       </c>
       <c r="V29" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W29" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y29" t="n">
-        <v>259.7403447020519</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -24916,13 +24916,13 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C32" t="n">
-        <v>77.39575053943776</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D32" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E32" t="n">
         <v>0</v>
@@ -24931,10 +24931,10 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>395.5076644073176</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>266.1943991280601</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -24967,25 +24967,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>40.06170608735099</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>209.6535390155789</v>
       </c>
       <c r="U32" t="n">
         <v>256.4799845637012</v>
       </c>
       <c r="V32" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W32" t="n">
         <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -25156,19 +25156,19 @@
         <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E35" t="n">
         <v>429.4369973932878</v>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G35" t="n">
-        <v>395.5076644073176</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
         <v>267.0243359415286</v>
@@ -25207,22 +25207,22 @@
         <v>40.06170608735099</v>
       </c>
       <c r="T35" t="n">
-        <v>209.6535390155789</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>256.4799845637012</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>358.9907805655117</v>
+        <v>168.4366665219329</v>
       </c>
       <c r="W35" t="n">
-        <v>225.9574120072797</v>
+        <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="36">
@@ -25320,13 +25320,13 @@
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G37" t="n">
-        <v>163.0937685836068</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -25365,13 +25365,13 @@
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>239.8247518556274</v>
+        <v>46.28436759624751</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>211.5117283456776</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
@@ -25380,7 +25380,7 @@
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="38">
@@ -25390,25 +25390,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>244.5556896143459</v>
+        <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E38" t="n">
         <v>429.4369973932878</v>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>260.7198824588711</v>
       </c>
       <c r="G38" t="n">
         <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>267.0243359415286</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -25441,10 +25441,10 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>40.06170608735099</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>209.6535390155789</v>
       </c>
       <c r="U38" t="n">
         <v>256.4799845637012</v>
@@ -25453,7 +25453,7 @@
         <v>358.9907805655117</v>
       </c>
       <c r="W38" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X38" t="n">
         <v>414.9510387864824</v>
@@ -25554,13 +25554,13 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G40" t="n">
         <v>163.0937685836068</v>
@@ -25569,7 +25569,7 @@
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>62.46433369811443</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25599,16 +25599,16 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>49.71295013483694</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>167.2505271530312</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
@@ -25627,25 +25627,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
         <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>125.1510179995058</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
         <v>429.4369973932878</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G41" t="n">
-        <v>395.5076644073176</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>267.0243359415286</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -25678,25 +25678,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>1.572184281734415</v>
       </c>
       <c r="T41" t="n">
-        <v>209.6535390155789</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
         <v>256.4799845637012</v>
       </c>
       <c r="V41" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
         <v>400.806900043077</v>
       </c>
       <c r="X41" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y41" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="42">
@@ -25785,10 +25785,10 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>116.2811729292051</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D43" t="n">
         <v>164.2192128704925</v>
@@ -25842,7 +25842,7 @@
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>44.17943021089081</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -25851,7 +25851,7 @@
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>242.9378371199217</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -25864,13 +25864,13 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>245.8240680155201</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D44" t="n">
-        <v>339.0427370510387</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E44" t="n">
         <v>0</v>
@@ -25879,10 +25879,10 @@
         <v>423.5887552948843</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>395.5076644073176</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>267.0243359415286</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -25921,19 +25921,19 @@
         <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>256.4799845637012</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
         <v>400.806900043077</v>
       </c>
       <c r="X44" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -26022,13 +26022,13 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C46" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
@@ -26037,13 +26037,13 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>163.0937685836068</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>131.0206200144773</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>35.16512940358898</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26091,7 +26091,7 @@
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>149.4797657852203</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
   </sheetData>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>302480.0232293623</v>
+        <v>302480.0232293625</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>302480.0232293623</v>
+        <v>302480.0232293625</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>302480.0232293623</v>
+        <v>302480.0232293625</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>302480.0232293623</v>
+        <v>302480.0232293625</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>362580.3319681438</v>
+        <v>362580.3319681435</v>
       </c>
     </row>
     <row r="10">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>374327.5892751069</v>
+        <v>374327.5892751068</v>
       </c>
     </row>
     <row r="12">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>286123.4620860224</v>
+        <v>286123.4620860225</v>
       </c>
     </row>
     <row r="14">
@@ -26316,34 +26316,34 @@
         <v>471046.1696008125</v>
       </c>
       <c r="C2" t="n">
-        <v>471046.1696008124</v>
+        <v>471046.1696008125</v>
       </c>
       <c r="D2" t="n">
-        <v>471046.1696008124</v>
+        <v>471046.1696008125</v>
       </c>
       <c r="E2" t="n">
         <v>300454.3401403016</v>
       </c>
       <c r="F2" t="n">
-        <v>300454.3401403014</v>
+        <v>300454.3401403018</v>
       </c>
       <c r="G2" t="n">
-        <v>300454.3401403014</v>
+        <v>300454.3401403017</v>
       </c>
       <c r="H2" t="n">
-        <v>300454.3401403014</v>
+        <v>300454.3401403017</v>
       </c>
       <c r="I2" t="n">
-        <v>339490.1010355268</v>
+        <v>339490.1010355266</v>
       </c>
       <c r="J2" t="n">
-        <v>340425.1047381764</v>
+        <v>340425.1047381765</v>
       </c>
       <c r="K2" t="n">
         <v>340425.1047381765</v>
       </c>
       <c r="L2" t="n">
-        <v>340425.1047381764</v>
+        <v>340425.1047381765</v>
       </c>
       <c r="M2" t="n">
         <v>283135.6283414712</v>
@@ -26352,10 +26352,10 @@
         <v>283135.6283414712</v>
       </c>
       <c r="O2" t="n">
-        <v>283135.6283414712</v>
+        <v>283135.6283414713</v>
       </c>
       <c r="P2" t="n">
-        <v>283135.6283414712</v>
+        <v>283135.6283414713</v>
       </c>
     </row>
     <row r="3">
@@ -26374,7 +26374,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>561576.3366986584</v>
+        <v>561576.3366986583</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26386,10 +26386,10 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>28687.43758396156</v>
+        <v>28687.43758396135</v>
       </c>
       <c r="J3" t="n">
-        <v>13198.92408385188</v>
+        <v>13198.92408385212</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>107595.3788647971</v>
+        <v>107595.378864797</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26417,43 +26417,43 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>298730.7163118328</v>
+        <v>298730.7163118329</v>
       </c>
       <c r="C4" t="n">
-        <v>298730.7163118328</v>
+        <v>298730.7163118329</v>
       </c>
       <c r="D4" t="n">
-        <v>298730.7163118328</v>
+        <v>298730.7163118329</v>
       </c>
       <c r="E4" t="n">
-        <v>30168.63856793391</v>
+        <v>30168.63856793408</v>
       </c>
       <c r="F4" t="n">
-        <v>30168.6385679339</v>
+        <v>30168.6385679341</v>
       </c>
       <c r="G4" t="n">
-        <v>30168.6385679339</v>
+        <v>30168.63856793409</v>
       </c>
       <c r="H4" t="n">
-        <v>30168.63856793391</v>
+        <v>30168.63856793409</v>
       </c>
       <c r="I4" t="n">
         <v>53468.22036949158</v>
       </c>
       <c r="J4" t="n">
+        <v>53380.18087258612</v>
+      </c>
+      <c r="K4" t="n">
+        <v>53380.1808725861</v>
+      </c>
+      <c r="L4" t="n">
         <v>53380.18087258613</v>
       </c>
-      <c r="K4" t="n">
-        <v>53380.18087258612</v>
-      </c>
-      <c r="L4" t="n">
-        <v>53380.18087258611</v>
-      </c>
       <c r="M4" t="n">
-        <v>19185.36025012663</v>
+        <v>19185.36025012662</v>
       </c>
       <c r="N4" t="n">
-        <v>19185.36025012663</v>
+        <v>19185.36025012662</v>
       </c>
       <c r="O4" t="n">
         <v>19185.36025012663</v>
@@ -26478,19 +26478,19 @@
         <v>33627.6</v>
       </c>
       <c r="E5" t="n">
-        <v>47148.30100693079</v>
+        <v>47148.3010069308</v>
       </c>
       <c r="F5" t="n">
-        <v>47148.30100693079</v>
+        <v>47148.3010069308</v>
       </c>
       <c r="G5" t="n">
-        <v>47148.30100693079</v>
+        <v>47148.3010069308</v>
       </c>
       <c r="H5" t="n">
-        <v>47148.30100693079</v>
+        <v>47148.3010069308</v>
       </c>
       <c r="I5" t="n">
-        <v>53707.37759398056</v>
+        <v>53707.37759398053</v>
       </c>
       <c r="J5" t="n">
         <v>55677.28176780177</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>138687.8532889797</v>
+        <v>138655.946571478</v>
       </c>
       <c r="C6" t="n">
-        <v>138687.8532889796</v>
+        <v>138655.946571478</v>
       </c>
       <c r="D6" t="n">
-        <v>138687.8532889796</v>
+        <v>138655.946571478</v>
       </c>
       <c r="E6" t="n">
-        <v>-338438.9361332215</v>
+        <v>-338944.709043669</v>
       </c>
       <c r="F6" t="n">
-        <v>223137.4005654368</v>
+        <v>222631.6276549895</v>
       </c>
       <c r="G6" t="n">
-        <v>223137.4005654368</v>
+        <v>222631.6276549894</v>
       </c>
       <c r="H6" t="n">
-        <v>223137.4005654368</v>
+        <v>222631.6276549894</v>
       </c>
       <c r="I6" t="n">
-        <v>203627.0654880931</v>
+        <v>203229.7252467991</v>
       </c>
       <c r="J6" t="n">
-        <v>218168.7180139366</v>
+        <v>217773.9750051499</v>
       </c>
       <c r="K6" t="n">
-        <v>231367.6420977886</v>
+        <v>230972.899089002</v>
       </c>
       <c r="L6" t="n">
-        <v>231367.6420977885</v>
+        <v>230972.8990890019</v>
       </c>
       <c r="M6" t="n">
-        <v>110303.8080169097</v>
+        <v>109749.9275736878</v>
       </c>
       <c r="N6" t="n">
-        <v>217899.1868817068</v>
+        <v>217345.3064384848</v>
       </c>
       <c r="O6" t="n">
-        <v>217899.1868817068</v>
+        <v>217345.3064384849</v>
       </c>
       <c r="P6" t="n">
-        <v>217899.1868817068</v>
+        <v>217345.3064384849</v>
       </c>
     </row>
   </sheetData>
@@ -26694,19 +26694,19 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>13.05141963497794</v>
+        <v>13.05141963497816</v>
       </c>
       <c r="F2" t="n">
-        <v>13.05141963497794</v>
+        <v>13.05141963497816</v>
       </c>
       <c r="G2" t="n">
-        <v>13.05141963497794</v>
+        <v>13.05141963497816</v>
       </c>
       <c r="H2" t="n">
-        <v>13.05141963497794</v>
+        <v>13.05141963497816</v>
       </c>
       <c r="I2" t="n">
-        <v>13.05141963497794</v>
+        <v>13.05141963497816</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -26746,13 +26746,13 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>466.7019280932214</v>
+        <v>466.7019280932212</v>
       </c>
       <c r="F3" t="n">
-        <v>466.7019280932214</v>
+        <v>466.7019280932212</v>
       </c>
       <c r="G3" t="n">
-        <v>466.7019280932213</v>
+        <v>466.7019280932212</v>
       </c>
       <c r="H3" t="n">
         <v>466.7019280932212</v>
@@ -26798,25 +26798,25 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>590.0818943619345</v>
+        <v>590.0818943619342</v>
       </c>
       <c r="F4" t="n">
-        <v>590.0818943619344</v>
+        <v>590.0818943619342</v>
       </c>
       <c r="G4" t="n">
-        <v>590.0818943619344</v>
+        <v>590.0818943619342</v>
       </c>
       <c r="H4" t="n">
-        <v>590.0818943619344</v>
+        <v>590.0818943619342</v>
       </c>
       <c r="I4" t="n">
-        <v>697.9614434910425</v>
+        <v>697.9614434910416</v>
       </c>
       <c r="J4" t="n">
         <v>748.4075614369991</v>
       </c>
       <c r="K4" t="n">
-        <v>748.4075614369992</v>
+        <v>748.4075614369991</v>
       </c>
       <c r="L4" t="n">
         <v>748.4075614369991</v>
@@ -26916,7 +26916,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>13.05141963497794</v>
+        <v>13.05141963497816</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -26968,7 +26968,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>466.7019280932214</v>
+        <v>466.7019280932212</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>590.0818943619345</v>
+        <v>590.0818943619342</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27032,10 +27032,10 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>107.8795491291081</v>
+        <v>107.8795491291073</v>
       </c>
       <c r="J4" t="n">
-        <v>50.44611794595664</v>
+        <v>50.44611794595755</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>431.7562272868696</v>
+        <v>431.7562272868693</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27153,7 +27153,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>13.05141963497794</v>
+        <v>13.05141963497816</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>590.0818943619345</v>
+        <v>590.0818943619342</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -28089,25 +28089,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>13.05141963497794</v>
+        <v>13.05141963497816</v>
       </c>
       <c r="C11" t="n">
-        <v>13.05141963497794</v>
+        <v>13.05141963497816</v>
       </c>
       <c r="D11" t="n">
-        <v>13.05141963497794</v>
+        <v>13.05141963497816</v>
       </c>
       <c r="E11" t="n">
-        <v>13.05141963497794</v>
+        <v>13.05141963497816</v>
       </c>
       <c r="F11" t="n">
-        <v>13.05141963497794</v>
+        <v>13.05141963497816</v>
       </c>
       <c r="G11" t="n">
-        <v>13.05141963497794</v>
+        <v>13.05141963497816</v>
       </c>
       <c r="H11" t="n">
-        <v>13.05141963497794</v>
+        <v>13.05141963497816</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -28140,25 +28140,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>13.05141963497794</v>
+        <v>13.05141963497816</v>
       </c>
       <c r="T11" t="n">
-        <v>13.05141963497794</v>
+        <v>13.05141963497816</v>
       </c>
       <c r="U11" t="n">
-        <v>13.05141963497794</v>
+        <v>13.05141963497816</v>
       </c>
       <c r="V11" t="n">
-        <v>13.05141963497794</v>
+        <v>13.05141963497816</v>
       </c>
       <c r="W11" t="n">
-        <v>13.05141963497794</v>
+        <v>13.05141963497816</v>
       </c>
       <c r="X11" t="n">
-        <v>13.05141963497794</v>
+        <v>13.05141963497816</v>
       </c>
       <c r="Y11" t="n">
-        <v>13.05141963497794</v>
+        <v>13.05141963497816</v>
       </c>
     </row>
     <row r="12">
@@ -28247,28 +28247,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>13.05141963497794</v>
+        <v>13.05141963497816</v>
       </c>
       <c r="C13" t="n">
-        <v>13.05141963497794</v>
+        <v>13.05141963497816</v>
       </c>
       <c r="D13" t="n">
-        <v>13.05141963497794</v>
+        <v>13.05141963497816</v>
       </c>
       <c r="E13" t="n">
-        <v>13.05141963497794</v>
+        <v>13.05141963497816</v>
       </c>
       <c r="F13" t="n">
-        <v>13.05141963497794</v>
+        <v>13.05141963497816</v>
       </c>
       <c r="G13" t="n">
-        <v>13.05141963497794</v>
+        <v>13.05141963497816</v>
       </c>
       <c r="H13" t="n">
-        <v>13.05141963497794</v>
+        <v>13.05141963497816</v>
       </c>
       <c r="I13" t="n">
-        <v>13.05141963497794</v>
+        <v>13.05141963497816</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -28298,25 +28298,25 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>13.05141963497794</v>
+        <v>13.05141963497816</v>
       </c>
       <c r="T13" t="n">
-        <v>13.05141963497794</v>
+        <v>13.05141963497816</v>
       </c>
       <c r="U13" t="n">
-        <v>13.05141963497794</v>
+        <v>13.05141963497816</v>
       </c>
       <c r="V13" t="n">
-        <v>13.05141963497794</v>
+        <v>13.05141963497816</v>
       </c>
       <c r="W13" t="n">
-        <v>13.05141963497794</v>
+        <v>13.05141963497816</v>
       </c>
       <c r="X13" t="n">
-        <v>13.05141963497794</v>
+        <v>13.05141963497816</v>
       </c>
       <c r="Y13" t="n">
-        <v>13.05141963497794</v>
+        <v>13.05141963497816</v>
       </c>
     </row>
     <row r="14">
@@ -28326,25 +28326,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>13.05141963497794</v>
+        <v>13.05141963497816</v>
       </c>
       <c r="C14" t="n">
-        <v>13.05141963497794</v>
+        <v>13.05141963497816</v>
       </c>
       <c r="D14" t="n">
-        <v>13.05141963497794</v>
+        <v>13.05141963497816</v>
       </c>
       <c r="E14" t="n">
-        <v>13.05141963497794</v>
+        <v>13.05141963497816</v>
       </c>
       <c r="F14" t="n">
-        <v>13.05141963497794</v>
+        <v>13.05141963497816</v>
       </c>
       <c r="G14" t="n">
-        <v>13.05141963497794</v>
+        <v>13.05141963497816</v>
       </c>
       <c r="H14" t="n">
-        <v>13.05141963497794</v>
+        <v>13.05141963497816</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -28377,25 +28377,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>13.05141963497794</v>
+        <v>13.05141963497816</v>
       </c>
       <c r="T14" t="n">
-        <v>13.05141963497794</v>
+        <v>13.05141963497816</v>
       </c>
       <c r="U14" t="n">
-        <v>13.05141963497794</v>
+        <v>13.05141963497816</v>
       </c>
       <c r="V14" t="n">
-        <v>13.05141963497794</v>
+        <v>13.05141963497816</v>
       </c>
       <c r="W14" t="n">
-        <v>13.05141963497794</v>
+        <v>13.05141963497816</v>
       </c>
       <c r="X14" t="n">
-        <v>13.05141963497794</v>
+        <v>13.05141963497816</v>
       </c>
       <c r="Y14" t="n">
-        <v>13.05141963497794</v>
+        <v>13.05141963497816</v>
       </c>
     </row>
     <row r="15">
@@ -28484,28 +28484,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>13.05141963497794</v>
+        <v>13.05141963497816</v>
       </c>
       <c r="C16" t="n">
-        <v>13.05141963497794</v>
+        <v>13.05141963497816</v>
       </c>
       <c r="D16" t="n">
-        <v>13.05141963497794</v>
+        <v>13.05141963497816</v>
       </c>
       <c r="E16" t="n">
-        <v>13.05141963497794</v>
+        <v>13.05141963497816</v>
       </c>
       <c r="F16" t="n">
-        <v>13.05141963497794</v>
+        <v>13.05141963497816</v>
       </c>
       <c r="G16" t="n">
-        <v>13.05141963497794</v>
+        <v>13.05141963497816</v>
       </c>
       <c r="H16" t="n">
-        <v>13.05141963497794</v>
+        <v>13.05141963497816</v>
       </c>
       <c r="I16" t="n">
-        <v>13.05141963497794</v>
+        <v>13.05141963497816</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -28535,25 +28535,25 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>13.05141963497794</v>
+        <v>13.05141963497816</v>
       </c>
       <c r="T16" t="n">
-        <v>13.05141963497794</v>
+        <v>13.05141963497816</v>
       </c>
       <c r="U16" t="n">
-        <v>13.05141963497794</v>
+        <v>13.05141963497816</v>
       </c>
       <c r="V16" t="n">
-        <v>13.05141963497794</v>
+        <v>13.05141963497816</v>
       </c>
       <c r="W16" t="n">
-        <v>13.05141963497794</v>
+        <v>13.05141963497816</v>
       </c>
       <c r="X16" t="n">
-        <v>13.05141963497794</v>
+        <v>13.05141963497816</v>
       </c>
       <c r="Y16" t="n">
-        <v>13.05141963497794</v>
+        <v>13.05141963497816</v>
       </c>
     </row>
     <row r="17">
@@ -28563,25 +28563,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>13.05141963497794</v>
+        <v>13.05141963497816</v>
       </c>
       <c r="C17" t="n">
-        <v>13.05141963497794</v>
+        <v>13.05141963497816</v>
       </c>
       <c r="D17" t="n">
-        <v>13.05141963497794</v>
+        <v>13.05141963497816</v>
       </c>
       <c r="E17" t="n">
-        <v>13.05141963497794</v>
+        <v>13.05141963497816</v>
       </c>
       <c r="F17" t="n">
-        <v>13.05141963497794</v>
+        <v>13.05141963497816</v>
       </c>
       <c r="G17" t="n">
-        <v>13.05141963497794</v>
+        <v>13.05141963497816</v>
       </c>
       <c r="H17" t="n">
-        <v>13.05141963497794</v>
+        <v>13.05141963497816</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -28614,25 +28614,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>13.05141963497794</v>
+        <v>13.05141963497816</v>
       </c>
       <c r="T17" t="n">
-        <v>13.05141963497794</v>
+        <v>13.05141963497816</v>
       </c>
       <c r="U17" t="n">
-        <v>13.05141963497794</v>
+        <v>13.05141963497816</v>
       </c>
       <c r="V17" t="n">
-        <v>13.05141963497794</v>
+        <v>13.05141963497816</v>
       </c>
       <c r="W17" t="n">
-        <v>13.05141963497794</v>
+        <v>13.05141963497816</v>
       </c>
       <c r="X17" t="n">
-        <v>13.05141963497794</v>
+        <v>13.05141963497816</v>
       </c>
       <c r="Y17" t="n">
-        <v>13.05141963497794</v>
+        <v>13.05141963497816</v>
       </c>
     </row>
     <row r="18">
@@ -28721,28 +28721,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>13.05141963497794</v>
+        <v>13.05141963497816</v>
       </c>
       <c r="C19" t="n">
-        <v>13.05141963497794</v>
+        <v>13.05141963497816</v>
       </c>
       <c r="D19" t="n">
-        <v>13.05141963497794</v>
+        <v>13.05141963497816</v>
       </c>
       <c r="E19" t="n">
-        <v>13.05141963497794</v>
+        <v>13.05141963497816</v>
       </c>
       <c r="F19" t="n">
-        <v>13.05141963497794</v>
+        <v>13.05141963497816</v>
       </c>
       <c r="G19" t="n">
-        <v>13.05141963497794</v>
+        <v>13.05141963497816</v>
       </c>
       <c r="H19" t="n">
-        <v>13.05141963497794</v>
+        <v>13.05141963497816</v>
       </c>
       <c r="I19" t="n">
-        <v>13.05141963497794</v>
+        <v>13.05141963497816</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -28772,25 +28772,25 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>13.05141963497794</v>
+        <v>13.05141963497816</v>
       </c>
       <c r="T19" t="n">
-        <v>13.05141963497794</v>
+        <v>13.05141963497816</v>
       </c>
       <c r="U19" t="n">
-        <v>13.05141963497794</v>
+        <v>13.05141963497816</v>
       </c>
       <c r="V19" t="n">
-        <v>13.05141963497794</v>
+        <v>13.05141963497816</v>
       </c>
       <c r="W19" t="n">
-        <v>13.05141963497794</v>
+        <v>13.05141963497816</v>
       </c>
       <c r="X19" t="n">
-        <v>13.05141963497794</v>
+        <v>13.05141963497816</v>
       </c>
       <c r="Y19" t="n">
-        <v>13.05141963497794</v>
+        <v>13.05141963497816</v>
       </c>
     </row>
     <row r="20">
@@ -28800,25 +28800,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>13.05141963497794</v>
+        <v>13.05141963497816</v>
       </c>
       <c r="C20" t="n">
-        <v>13.05141963497794</v>
+        <v>13.05141963497816</v>
       </c>
       <c r="D20" t="n">
-        <v>13.05141963497794</v>
+        <v>13.05141963497816</v>
       </c>
       <c r="E20" t="n">
-        <v>13.05141963497794</v>
+        <v>13.05141963497816</v>
       </c>
       <c r="F20" t="n">
-        <v>13.05141963497794</v>
+        <v>13.05141963497816</v>
       </c>
       <c r="G20" t="n">
-        <v>13.05141963497794</v>
+        <v>13.05141963497816</v>
       </c>
       <c r="H20" t="n">
-        <v>13.05141963497794</v>
+        <v>13.05141963497816</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -28851,25 +28851,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>13.05141963497794</v>
+        <v>13.05141963497816</v>
       </c>
       <c r="T20" t="n">
-        <v>13.05141963497794</v>
+        <v>13.05141963497816</v>
       </c>
       <c r="U20" t="n">
-        <v>13.05141963497794</v>
+        <v>13.05141963497816</v>
       </c>
       <c r="V20" t="n">
-        <v>13.05141963497794</v>
+        <v>13.05141963497816</v>
       </c>
       <c r="W20" t="n">
-        <v>13.05141963497794</v>
+        <v>13.05141963497816</v>
       </c>
       <c r="X20" t="n">
-        <v>13.05141963497794</v>
+        <v>13.05141963497816</v>
       </c>
       <c r="Y20" t="n">
-        <v>13.05141963497794</v>
+        <v>13.05141963497816</v>
       </c>
     </row>
     <row r="21">
@@ -28958,28 +28958,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>13.05141963497794</v>
+        <v>13.05141963497816</v>
       </c>
       <c r="C22" t="n">
-        <v>13.05141963497794</v>
+        <v>13.05141963497816</v>
       </c>
       <c r="D22" t="n">
-        <v>13.05141963497794</v>
+        <v>13.05141963497816</v>
       </c>
       <c r="E22" t="n">
-        <v>13.05141963497794</v>
+        <v>13.05141963497816</v>
       </c>
       <c r="F22" t="n">
-        <v>13.05141963497794</v>
+        <v>13.05141963497816</v>
       </c>
       <c r="G22" t="n">
-        <v>13.05141963497794</v>
+        <v>13.05141963497816</v>
       </c>
       <c r="H22" t="n">
-        <v>13.05141963497794</v>
+        <v>13.05141963497816</v>
       </c>
       <c r="I22" t="n">
-        <v>13.05141963497794</v>
+        <v>13.05141963497816</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -29009,25 +29009,25 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>13.05141963497794</v>
+        <v>13.05141963497816</v>
       </c>
       <c r="T22" t="n">
-        <v>13.05141963497794</v>
+        <v>13.05141963497816</v>
       </c>
       <c r="U22" t="n">
-        <v>13.05141963497794</v>
+        <v>13.05141963497816</v>
       </c>
       <c r="V22" t="n">
-        <v>13.05141963497794</v>
+        <v>13.05141963497816</v>
       </c>
       <c r="W22" t="n">
-        <v>13.05141963497794</v>
+        <v>13.05141963497816</v>
       </c>
       <c r="X22" t="n">
-        <v>13.05141963497794</v>
+        <v>13.05141963497816</v>
       </c>
       <c r="Y22" t="n">
-        <v>13.05141963497794</v>
+        <v>13.05141963497816</v>
       </c>
     </row>
     <row r="23">
@@ -29037,25 +29037,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>13.05141963497794</v>
+        <v>13.05141963497816</v>
       </c>
       <c r="C23" t="n">
-        <v>13.05141963497794</v>
+        <v>13.05141963497816</v>
       </c>
       <c r="D23" t="n">
-        <v>13.05141963497794</v>
+        <v>13.05141963497816</v>
       </c>
       <c r="E23" t="n">
-        <v>13.05141963497794</v>
+        <v>13.05141963497816</v>
       </c>
       <c r="F23" t="n">
-        <v>13.05141963497794</v>
+        <v>13.05141963497816</v>
       </c>
       <c r="G23" t="n">
-        <v>13.05141963497794</v>
+        <v>13.05141963497816</v>
       </c>
       <c r="H23" t="n">
-        <v>13.05141963497794</v>
+        <v>13.05141963497816</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -29088,25 +29088,25 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>13.05141963497794</v>
+        <v>13.05141963497816</v>
       </c>
       <c r="T23" t="n">
-        <v>13.05141963497794</v>
+        <v>13.05141963497816</v>
       </c>
       <c r="U23" t="n">
-        <v>13.05141963497794</v>
+        <v>13.05141963497816</v>
       </c>
       <c r="V23" t="n">
-        <v>13.05141963497794</v>
+        <v>13.05141963497816</v>
       </c>
       <c r="W23" t="n">
-        <v>13.05141963497794</v>
+        <v>13.05141963497816</v>
       </c>
       <c r="X23" t="n">
-        <v>13.05141963497794</v>
+        <v>13.05141963497816</v>
       </c>
       <c r="Y23" t="n">
-        <v>13.05141963497794</v>
+        <v>13.05141963497816</v>
       </c>
     </row>
     <row r="24">
@@ -29195,28 +29195,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>13.05141963497794</v>
+        <v>13.05141963497816</v>
       </c>
       <c r="C25" t="n">
-        <v>13.05141963497794</v>
+        <v>13.05141963497816</v>
       </c>
       <c r="D25" t="n">
-        <v>13.05141963497794</v>
+        <v>13.05141963497816</v>
       </c>
       <c r="E25" t="n">
-        <v>13.05141963497794</v>
+        <v>13.05141963497816</v>
       </c>
       <c r="F25" t="n">
-        <v>13.05141963497794</v>
+        <v>13.05141963497816</v>
       </c>
       <c r="G25" t="n">
-        <v>13.05141963497794</v>
+        <v>13.05141963497816</v>
       </c>
       <c r="H25" t="n">
-        <v>13.05141963497794</v>
+        <v>13.05141963497816</v>
       </c>
       <c r="I25" t="n">
-        <v>13.05141963497794</v>
+        <v>13.05141963497816</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -29246,25 +29246,25 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>13.05141963497794</v>
+        <v>13.05141963497816</v>
       </c>
       <c r="T25" t="n">
-        <v>13.05141963497794</v>
+        <v>13.05141963497816</v>
       </c>
       <c r="U25" t="n">
-        <v>13.05141963497794</v>
+        <v>13.05141963497816</v>
       </c>
       <c r="V25" t="n">
-        <v>13.05141963497794</v>
+        <v>13.05141963497816</v>
       </c>
       <c r="W25" t="n">
-        <v>13.05141963497794</v>
+        <v>13.05141963497816</v>
       </c>
       <c r="X25" t="n">
-        <v>13.05141963497794</v>
+        <v>13.05141963497816</v>
       </c>
       <c r="Y25" t="n">
-        <v>13.05141963497794</v>
+        <v>13.05141963497816</v>
       </c>
     </row>
     <row r="26">
@@ -31752,49 +31752,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>1.87618865565114</v>
+        <v>1.876188655651139</v>
       </c>
       <c r="H11" t="n">
-        <v>19.21451706968724</v>
+        <v>19.21451706968723</v>
       </c>
       <c r="I11" t="n">
-        <v>72.33176314699064</v>
+        <v>72.33176314699061</v>
       </c>
       <c r="J11" t="n">
-        <v>159.2391669125711</v>
+        <v>159.239166912571</v>
       </c>
       <c r="K11" t="n">
-        <v>238.6582327062839</v>
+        <v>238.6582327062838</v>
       </c>
       <c r="L11" t="n">
-        <v>296.0766412766675</v>
+        <v>296.0766412766674</v>
       </c>
       <c r="M11" t="n">
-        <v>329.4423112816035</v>
+        <v>329.4423112816033</v>
       </c>
       <c r="N11" t="n">
-        <v>334.7730322994723</v>
+        <v>334.7730322994722</v>
       </c>
       <c r="O11" t="n">
-        <v>316.1166813548413</v>
+        <v>316.1166813548411</v>
       </c>
       <c r="P11" t="n">
-        <v>269.7982739184537</v>
+        <v>269.7982739184536</v>
       </c>
       <c r="Q11" t="n">
-        <v>202.6072676879472</v>
+        <v>202.6072676879471</v>
       </c>
       <c r="R11" t="n">
         <v>117.855135640546</v>
       </c>
       <c r="S11" t="n">
-        <v>42.75364899065039</v>
+        <v>42.75364899065038</v>
       </c>
       <c r="T11" t="n">
-        <v>8.213015840112869</v>
+        <v>8.213015840112867</v>
       </c>
       <c r="U11" t="n">
-        <v>0.1500950924520912</v>
+        <v>0.1500950924520911</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31831,49 +31831,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>1.00384943023825</v>
+        <v>1.003849430238249</v>
       </c>
       <c r="H12" t="n">
-        <v>9.695072128879941</v>
+        <v>9.695072128879938</v>
       </c>
       <c r="I12" t="n">
         <v>34.56235976916781</v>
       </c>
       <c r="J12" t="n">
-        <v>94.84175691562344</v>
+        <v>94.84175691562339</v>
       </c>
       <c r="K12" t="n">
-        <v>162.0996687415862</v>
+        <v>162.0996687415861</v>
       </c>
       <c r="L12" t="n">
         <v>217.9630089646691</v>
       </c>
       <c r="M12" t="n">
-        <v>254.3525508108056</v>
+        <v>254.3525508108055</v>
       </c>
       <c r="N12" t="n">
-        <v>261.0845059811315</v>
+        <v>261.0845059811314</v>
       </c>
       <c r="O12" t="n">
-        <v>238.8413159742727</v>
+        <v>238.8413159742733</v>
       </c>
       <c r="P12" t="n">
-        <v>191.6912126917234</v>
+        <v>191.6912126917233</v>
       </c>
       <c r="Q12" t="n">
         <v>128.1404992002369</v>
       </c>
       <c r="R12" t="n">
-        <v>62.32672164233627</v>
+        <v>62.32672164233625</v>
       </c>
       <c r="S12" t="n">
         <v>18.64606288183765</v>
       </c>
       <c r="T12" t="n">
-        <v>4.046217659600663</v>
+        <v>4.046217659600662</v>
       </c>
       <c r="U12" t="n">
-        <v>0.0660427256735691</v>
+        <v>0.06604272567356907</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31910,19 +31910,19 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0.8415936408238418</v>
+        <v>0.8415936408238415</v>
       </c>
       <c r="H13" t="n">
-        <v>7.48253255205198</v>
+        <v>7.482532552051977</v>
       </c>
       <c r="I13" t="n">
         <v>25.30901603495699</v>
       </c>
       <c r="J13" t="n">
-        <v>59.50067040624561</v>
+        <v>59.50067040624559</v>
       </c>
       <c r="K13" t="n">
-        <v>97.77787936116997</v>
+        <v>97.77787936116992</v>
       </c>
       <c r="L13" t="n">
         <v>125.1220218366646</v>
@@ -31934,25 +31934,25 @@
         <v>128.7867795998885</v>
       </c>
       <c r="O13" t="n">
-        <v>118.95543570481</v>
+        <v>118.9554357048099</v>
       </c>
       <c r="P13" t="n">
         <v>101.7869254320035</v>
       </c>
       <c r="Q13" t="n">
-        <v>70.47199114207643</v>
+        <v>70.4719911420764</v>
       </c>
       <c r="R13" t="n">
-        <v>37.841110431952</v>
+        <v>37.84111043195199</v>
       </c>
       <c r="S13" t="n">
         <v>14.66668190417549</v>
       </c>
       <c r="T13" t="n">
-        <v>3.595900101701869</v>
+        <v>3.595900101701867</v>
       </c>
       <c r="U13" t="n">
-        <v>0.04590510768130052</v>
+        <v>0.0459051076813005</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,49 +31989,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>1.87618865565114</v>
+        <v>1.876188655651139</v>
       </c>
       <c r="H14" t="n">
-        <v>19.21451706968724</v>
+        <v>19.21451706968723</v>
       </c>
       <c r="I14" t="n">
-        <v>72.33176314699064</v>
+        <v>72.33176314699061</v>
       </c>
       <c r="J14" t="n">
-        <v>159.2391669125711</v>
+        <v>159.239166912571</v>
       </c>
       <c r="K14" t="n">
-        <v>238.6582327062839</v>
+        <v>238.6582327062838</v>
       </c>
       <c r="L14" t="n">
-        <v>296.0766412766675</v>
+        <v>296.0766412766674</v>
       </c>
       <c r="M14" t="n">
-        <v>329.4423112816035</v>
+        <v>329.4423112816033</v>
       </c>
       <c r="N14" t="n">
-        <v>334.7730322994723</v>
+        <v>334.7730322994721</v>
       </c>
       <c r="O14" t="n">
-        <v>316.1166813548413</v>
+        <v>316.1166813548411</v>
       </c>
       <c r="P14" t="n">
-        <v>269.7982739184537</v>
+        <v>269.7982739184536</v>
       </c>
       <c r="Q14" t="n">
-        <v>202.6072676879472</v>
+        <v>202.6072676879471</v>
       </c>
       <c r="R14" t="n">
         <v>117.855135640546</v>
       </c>
       <c r="S14" t="n">
-        <v>42.75364899065039</v>
+        <v>42.75364899065037</v>
       </c>
       <c r="T14" t="n">
-        <v>8.213015840112869</v>
+        <v>8.213015840112865</v>
       </c>
       <c r="U14" t="n">
-        <v>0.1500950924520912</v>
+        <v>0.1500950924520911</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32068,49 +32068,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>1.00384943023825</v>
+        <v>1.003849430238249</v>
       </c>
       <c r="H15" t="n">
-        <v>9.695072128879941</v>
+        <v>9.695072128879936</v>
       </c>
       <c r="I15" t="n">
-        <v>34.56235976916702</v>
+        <v>34.5623597691678</v>
       </c>
       <c r="J15" t="n">
-        <v>94.84175691562344</v>
+        <v>94.84175691562339</v>
       </c>
       <c r="K15" t="n">
-        <v>162.0996687415862</v>
+        <v>162.0996687415861</v>
       </c>
       <c r="L15" t="n">
-        <v>217.9630089646691</v>
+        <v>217.963008964669</v>
       </c>
       <c r="M15" t="n">
-        <v>254.3525508108056</v>
+        <v>254.3525508108055</v>
       </c>
       <c r="N15" t="n">
-        <v>261.0845059811315</v>
+        <v>261.0845059811314</v>
       </c>
       <c r="O15" t="n">
-        <v>238.8413159742734</v>
+        <v>238.8413159742733</v>
       </c>
       <c r="P15" t="n">
-        <v>191.6912126917234</v>
+        <v>191.6912126917233</v>
       </c>
       <c r="Q15" t="n">
         <v>128.1404992002369</v>
       </c>
       <c r="R15" t="n">
-        <v>62.32672164233627</v>
+        <v>62.32672164233622</v>
       </c>
       <c r="S15" t="n">
-        <v>18.64606288183765</v>
+        <v>18.64606288183764</v>
       </c>
       <c r="T15" t="n">
-        <v>4.046217659600663</v>
+        <v>4.046217659600662</v>
       </c>
       <c r="U15" t="n">
-        <v>0.0660427256735691</v>
+        <v>0.06604272567356906</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32147,49 +32147,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0.8415936408238418</v>
+        <v>0.8415936408238414</v>
       </c>
       <c r="H16" t="n">
-        <v>7.48253255205198</v>
+        <v>7.482532552051977</v>
       </c>
       <c r="I16" t="n">
-        <v>25.30901603495699</v>
+        <v>25.30901603495698</v>
       </c>
       <c r="J16" t="n">
-        <v>59.50067040624561</v>
+        <v>59.50067040624558</v>
       </c>
       <c r="K16" t="n">
-        <v>97.77787936116997</v>
+        <v>97.77787936116991</v>
       </c>
       <c r="L16" t="n">
         <v>125.1220218366646</v>
       </c>
       <c r="M16" t="n">
-        <v>131.9236286247773</v>
+        <v>131.9236286247772</v>
       </c>
       <c r="N16" t="n">
         <v>128.7867795998885</v>
       </c>
       <c r="O16" t="n">
-        <v>118.95543570481</v>
+        <v>118.9554357048099</v>
       </c>
       <c r="P16" t="n">
         <v>101.7869254320035</v>
       </c>
       <c r="Q16" t="n">
-        <v>70.47199114207643</v>
+        <v>70.47199114207639</v>
       </c>
       <c r="R16" t="n">
-        <v>37.841110431952</v>
+        <v>37.84111043195198</v>
       </c>
       <c r="S16" t="n">
         <v>14.66668190417549</v>
       </c>
       <c r="T16" t="n">
-        <v>3.595900101701869</v>
+        <v>3.595900101701867</v>
       </c>
       <c r="U16" t="n">
-        <v>0.04590510768130052</v>
+        <v>0.04590510768130049</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32229,13 +32229,13 @@
         <v>1.876188655651139</v>
       </c>
       <c r="H17" t="n">
-        <v>19.21451706968724</v>
+        <v>19.21451706968723</v>
       </c>
       <c r="I17" t="n">
-        <v>72.33176314699062</v>
+        <v>72.33176314699061</v>
       </c>
       <c r="J17" t="n">
-        <v>159.2391669125711</v>
+        <v>159.239166912571</v>
       </c>
       <c r="K17" t="n">
         <v>238.6582327062838</v>
@@ -32244,10 +32244,10 @@
         <v>296.0766412766674</v>
       </c>
       <c r="M17" t="n">
-        <v>329.4423112816034</v>
+        <v>329.4423112816033</v>
       </c>
       <c r="N17" t="n">
-        <v>334.7730322994722</v>
+        <v>334.7730322994721</v>
       </c>
       <c r="O17" t="n">
         <v>316.1166813548411</v>
@@ -32262,10 +32262,10 @@
         <v>117.855135640546</v>
       </c>
       <c r="S17" t="n">
-        <v>42.75364899065038</v>
+        <v>42.75364899065037</v>
       </c>
       <c r="T17" t="n">
-        <v>8.213015840112867</v>
+        <v>8.213015840112865</v>
       </c>
       <c r="U17" t="n">
         <v>0.1500950924520911</v>
@@ -32305,31 +32305,31 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>1.00384943023825</v>
+        <v>1.003849430238249</v>
       </c>
       <c r="H18" t="n">
-        <v>9.695072128879938</v>
+        <v>9.695072128879936</v>
       </c>
       <c r="I18" t="n">
-        <v>34.56235976916781</v>
+        <v>34.5623597691678</v>
       </c>
       <c r="J18" t="n">
-        <v>94.84175691562341</v>
+        <v>94.84175691562339</v>
       </c>
       <c r="K18" t="n">
         <v>162.0996687415861</v>
       </c>
       <c r="L18" t="n">
-        <v>217.9630089646691</v>
+        <v>217.963008964669</v>
       </c>
       <c r="M18" t="n">
-        <v>254.3525508108056</v>
+        <v>254.3525508108055</v>
       </c>
       <c r="N18" t="n">
-        <v>261.0845059811309</v>
+        <v>261.0845059811313</v>
       </c>
       <c r="O18" t="n">
-        <v>238.8413159742734</v>
+        <v>238.8413159742733</v>
       </c>
       <c r="P18" t="n">
         <v>191.6912126917233</v>
@@ -32338,16 +32338,16 @@
         <v>128.1404992002369</v>
       </c>
       <c r="R18" t="n">
-        <v>62.32672164233626</v>
+        <v>62.32672164233624</v>
       </c>
       <c r="S18" t="n">
-        <v>18.64606288183765</v>
+        <v>18.64606288183764</v>
       </c>
       <c r="T18" t="n">
         <v>4.046217659600662</v>
       </c>
       <c r="U18" t="n">
-        <v>0.06604272567356907</v>
+        <v>0.06604272567356906</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32384,25 +32384,25 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0.8415936408238416</v>
+        <v>0.8415936408238414</v>
       </c>
       <c r="H19" t="n">
-        <v>7.482532552051978</v>
+        <v>7.482532552051977</v>
       </c>
       <c r="I19" t="n">
-        <v>25.30901603495699</v>
+        <v>25.30901603495698</v>
       </c>
       <c r="J19" t="n">
-        <v>59.5006704062456</v>
+        <v>59.50067040624558</v>
       </c>
       <c r="K19" t="n">
-        <v>97.77787936116994</v>
+        <v>97.77787936116991</v>
       </c>
       <c r="L19" t="n">
         <v>125.1220218366646</v>
       </c>
       <c r="M19" t="n">
-        <v>131.9236286247773</v>
+        <v>131.9236286247772</v>
       </c>
       <c r="N19" t="n">
         <v>128.7867795998885</v>
@@ -32414,19 +32414,19 @@
         <v>101.7869254320035</v>
       </c>
       <c r="Q19" t="n">
-        <v>70.4719911420764</v>
+        <v>70.47199114207639</v>
       </c>
       <c r="R19" t="n">
-        <v>37.841110431952</v>
+        <v>37.84111043195198</v>
       </c>
       <c r="S19" t="n">
         <v>14.66668190417549</v>
       </c>
       <c r="T19" t="n">
-        <v>3.595900101701868</v>
+        <v>3.595900101701867</v>
       </c>
       <c r="U19" t="n">
-        <v>0.0459051076813005</v>
+        <v>0.04590510768130049</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32569,7 +32569,7 @@
         <v>238.8413159742733</v>
       </c>
       <c r="P21" t="n">
-        <v>191.6912126917233</v>
+        <v>191.6912126917232</v>
       </c>
       <c r="Q21" t="n">
         <v>128.1404992002369</v>
@@ -32785,7 +32785,7 @@
         <v>9.695072128879936</v>
       </c>
       <c r="I24" t="n">
-        <v>34.5623597691678</v>
+        <v>34.56235976916768</v>
       </c>
       <c r="J24" t="n">
         <v>94.84175691562339</v>
@@ -33028,7 +33028,7 @@
         <v>94.84175691562339</v>
       </c>
       <c r="K27" t="n">
-        <v>162.099668741586</v>
+        <v>162.0996687415861</v>
       </c>
       <c r="L27" t="n">
         <v>217.963008964669</v>
@@ -33283,7 +33283,7 @@
         <v>191.6912126917233</v>
       </c>
       <c r="Q30" t="n">
-        <v>128.1404992002369</v>
+        <v>128.1404992002367</v>
       </c>
       <c r="R30" t="n">
         <v>62.32672164233624</v>
@@ -33499,7 +33499,7 @@
         <v>34.5623597691678</v>
       </c>
       <c r="J33" t="n">
-        <v>94.84175691562339</v>
+        <v>94.84175691562328</v>
       </c>
       <c r="K33" t="n">
         <v>162.0996687415861</v>
@@ -33514,7 +33514,7 @@
         <v>261.0845059811314</v>
       </c>
       <c r="O33" t="n">
-        <v>238.8413159742731</v>
+        <v>238.8413159742733</v>
       </c>
       <c r="P33" t="n">
         <v>191.6912126917233</v>
@@ -33748,7 +33748,7 @@
         <v>254.3525508108055</v>
       </c>
       <c r="N36" t="n">
-        <v>261.0845059811313</v>
+        <v>261.0845059811314</v>
       </c>
       <c r="O36" t="n">
         <v>238.8413159742733</v>
@@ -33997,7 +33997,7 @@
         <v>128.1404992002369</v>
       </c>
       <c r="R39" t="n">
-        <v>62.32672164233624</v>
+        <v>62.32672164233622</v>
       </c>
       <c r="S39" t="n">
         <v>18.64606288183764</v>
@@ -34228,7 +34228,7 @@
         <v>238.8413159742733</v>
       </c>
       <c r="P42" t="n">
-        <v>191.6912126917232</v>
+        <v>191.6912126917233</v>
       </c>
       <c r="Q42" t="n">
         <v>128.1404992002369</v>
@@ -35406,28 +35406,28 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>71.91914166785924</v>
+        <v>71.91914166785921</v>
       </c>
       <c r="J11" t="n">
-        <v>159.2391669125709</v>
+        <v>159.239166912571</v>
       </c>
       <c r="K11" t="n">
         <v>238.6582327062838</v>
       </c>
       <c r="L11" t="n">
-        <v>296.0766412766675</v>
+        <v>296.0766412766674</v>
       </c>
       <c r="M11" t="n">
-        <v>329.4423112816035</v>
+        <v>329.4423112816033</v>
       </c>
       <c r="N11" t="n">
-        <v>334.7730322994723</v>
+        <v>334.7730322994721</v>
       </c>
       <c r="O11" t="n">
         <v>316.1166813548411</v>
       </c>
       <c r="P11" t="n">
-        <v>269.7982739184538</v>
+        <v>269.7982739184536</v>
       </c>
       <c r="Q11" t="n">
         <v>202.6072676879471</v>
@@ -35485,28 +35485,28 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>34.56235976916782</v>
+        <v>34.56235976916781</v>
       </c>
       <c r="J12" t="n">
-        <v>94.84175691562345</v>
+        <v>94.84175691562339</v>
       </c>
       <c r="K12" t="n">
         <v>162.0996687415861</v>
       </c>
       <c r="L12" t="n">
-        <v>217.9630089646691</v>
+        <v>217.963008964669</v>
       </c>
       <c r="M12" t="n">
-        <v>254.3525508108056</v>
+        <v>254.3525508108055</v>
       </c>
       <c r="N12" t="n">
-        <v>261.0845059811314</v>
+        <v>261.0845059811313</v>
       </c>
       <c r="O12" t="n">
-        <v>238.8413159742727</v>
+        <v>238.8413159742734</v>
       </c>
       <c r="P12" t="n">
-        <v>191.6912126917234</v>
+        <v>191.6912126917232</v>
       </c>
       <c r="Q12" t="n">
         <v>128.1404992002369</v>
@@ -35570,28 +35570,28 @@
         <v>146.9548978453263</v>
       </c>
       <c r="K13" t="n">
-        <v>97.77787936116994</v>
+        <v>202.7781168554913</v>
       </c>
       <c r="L13" t="n">
         <v>547.5562458447062</v>
       </c>
       <c r="M13" t="n">
-        <v>590.0818943619345</v>
+        <v>131.9236286247773</v>
       </c>
       <c r="N13" t="n">
-        <v>128.7867795998886</v>
+        <v>575.5128433954892</v>
       </c>
       <c r="O13" t="n">
-        <v>118.95543570481</v>
+        <v>542.8637682561043</v>
       </c>
       <c r="P13" t="n">
-        <v>452.8039900485105</v>
+        <v>101.7869254320035</v>
       </c>
       <c r="Q13" t="n">
-        <v>236.9312946296295</v>
+        <v>70.4719911420766</v>
       </c>
       <c r="R13" t="n">
-        <v>16.63746735027017</v>
+        <v>16.63746735027015</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -35643,22 +35643,22 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>71.91914166785924</v>
+        <v>71.91914166785921</v>
       </c>
       <c r="J14" t="n">
-        <v>159.2391669125711</v>
+        <v>159.2391669125714</v>
       </c>
       <c r="K14" t="n">
-        <v>238.6582327062837</v>
+        <v>238.6582327062838</v>
       </c>
       <c r="L14" t="n">
-        <v>296.0766412766675</v>
+        <v>296.0766412766674</v>
       </c>
       <c r="M14" t="n">
-        <v>329.4423112816036</v>
+        <v>329.4423112816033</v>
       </c>
       <c r="N14" t="n">
-        <v>334.7730322994723</v>
+        <v>334.7730322994721</v>
       </c>
       <c r="O14" t="n">
         <v>316.1166813548411</v>
@@ -35670,7 +35670,7 @@
         <v>202.6072676879471</v>
       </c>
       <c r="R14" t="n">
-        <v>117.855135640546</v>
+        <v>117.8551356405455</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35722,28 +35722,28 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>34.56235976916702</v>
+        <v>34.56235976916781</v>
       </c>
       <c r="J15" t="n">
-        <v>94.84175691562344</v>
+        <v>94.84175691562339</v>
       </c>
       <c r="K15" t="n">
-        <v>162.0996687415862</v>
+        <v>162.0996687415861</v>
       </c>
       <c r="L15" t="n">
-        <v>217.9630089646691</v>
+        <v>217.963008964669</v>
       </c>
       <c r="M15" t="n">
-        <v>254.3525508108056</v>
+        <v>254.3525508108055</v>
       </c>
       <c r="N15" t="n">
-        <v>261.0845059811315</v>
+        <v>261.0845059811313</v>
       </c>
       <c r="O15" t="n">
         <v>238.8413159742734</v>
       </c>
       <c r="P15" t="n">
-        <v>191.6912126917234</v>
+        <v>191.6912126917232</v>
       </c>
       <c r="Q15" t="n">
         <v>128.1404992002369</v>
@@ -35807,28 +35807,28 @@
         <v>146.9548978453263</v>
       </c>
       <c r="K16" t="n">
-        <v>375.3116718572665</v>
+        <v>375.3116718572664</v>
       </c>
       <c r="L16" t="n">
-        <v>125.1220218366647</v>
+        <v>170.8810658749154</v>
       </c>
       <c r="M16" t="n">
-        <v>131.9236286247773</v>
+        <v>590.0818943619342</v>
       </c>
       <c r="N16" t="n">
-        <v>575.5128433954892</v>
+        <v>575.512843395489</v>
       </c>
       <c r="O16" t="n">
-        <v>441.7473726458643</v>
+        <v>118.9554357048098</v>
       </c>
       <c r="P16" t="n">
-        <v>452.8039900485103</v>
+        <v>101.7869254320035</v>
       </c>
       <c r="Q16" t="n">
-        <v>70.4719911420766</v>
+        <v>240.36368292423</v>
       </c>
       <c r="R16" t="n">
-        <v>16.63746735027017</v>
+        <v>16.63746735027015</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -35880,10 +35880,10 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>71.91914166785922</v>
+        <v>71.91914166785921</v>
       </c>
       <c r="J17" t="n">
-        <v>159.2391669125711</v>
+        <v>159.2391669125709</v>
       </c>
       <c r="K17" t="n">
         <v>238.6582327062838</v>
@@ -35892,22 +35892,22 @@
         <v>296.0766412766675</v>
       </c>
       <c r="M17" t="n">
-        <v>329.4423112816035</v>
+        <v>329.4423112816032</v>
       </c>
       <c r="N17" t="n">
         <v>334.7730322994721</v>
       </c>
       <c r="O17" t="n">
-        <v>316.1166813548414</v>
+        <v>316.1166813548411</v>
       </c>
       <c r="P17" t="n">
-        <v>269.7982739184536</v>
+        <v>269.7982739184538</v>
       </c>
       <c r="Q17" t="n">
         <v>202.6072676879471</v>
       </c>
       <c r="R17" t="n">
-        <v>117.855135640546</v>
+        <v>117.8551356405455</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35959,28 +35959,28 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>34.5623597691678</v>
+        <v>34.56235976916781</v>
       </c>
       <c r="J18" t="n">
-        <v>94.84175691562342</v>
+        <v>94.84175691562339</v>
       </c>
       <c r="K18" t="n">
         <v>162.0996687415861</v>
       </c>
       <c r="L18" t="n">
-        <v>217.9630089646691</v>
+        <v>217.963008964669</v>
       </c>
       <c r="M18" t="n">
-        <v>254.3525508108056</v>
+        <v>254.3525508108055</v>
       </c>
       <c r="N18" t="n">
-        <v>261.0845059811309</v>
+        <v>261.0845059811313</v>
       </c>
       <c r="O18" t="n">
         <v>238.8413159742734</v>
       </c>
       <c r="P18" t="n">
-        <v>191.6912126917234</v>
+        <v>191.6912126917232</v>
       </c>
       <c r="Q18" t="n">
         <v>128.1404992002369</v>
@@ -36041,31 +36041,31 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>146.9548978453263</v>
+        <v>59.50067040624558</v>
       </c>
       <c r="K19" t="n">
-        <v>375.3116718572665</v>
+        <v>375.3116718572664</v>
       </c>
       <c r="L19" t="n">
-        <v>547.5562458447062</v>
+        <v>125.1220218366646</v>
       </c>
       <c r="M19" t="n">
-        <v>383.2984061742968</v>
+        <v>131.9236286247773</v>
       </c>
       <c r="N19" t="n">
         <v>575.5128433954892</v>
       </c>
       <c r="O19" t="n">
-        <v>118.95543570481</v>
+        <v>542.8637682561043</v>
       </c>
       <c r="P19" t="n">
-        <v>101.7869254320035</v>
+        <v>439.1418218773506</v>
       </c>
       <c r="Q19" t="n">
         <v>70.4719911420766</v>
       </c>
       <c r="R19" t="n">
-        <v>16.63746735027016</v>
+        <v>16.63746735027015</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -36120,16 +36120,16 @@
         <v>71.91914166785921</v>
       </c>
       <c r="J20" t="n">
-        <v>159.2391669125714</v>
+        <v>159.239166912571</v>
       </c>
       <c r="K20" t="n">
         <v>238.6582327062838</v>
       </c>
       <c r="L20" t="n">
-        <v>296.0766412766673</v>
+        <v>296.0766412766674</v>
       </c>
       <c r="M20" t="n">
-        <v>329.4423112816032</v>
+        <v>329.4423112816035</v>
       </c>
       <c r="N20" t="n">
         <v>334.7730322994721</v>
@@ -36196,7 +36196,7 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>34.5623597691678</v>
+        <v>34.56235976916781</v>
       </c>
       <c r="J21" t="n">
         <v>94.84175691562339</v>
@@ -36278,22 +36278,22 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>59.50067040624559</v>
+        <v>59.50067040624558</v>
       </c>
       <c r="K22" t="n">
-        <v>350.2173017445509</v>
+        <v>97.77787936116989</v>
       </c>
       <c r="L22" t="n">
-        <v>125.1220218366646</v>
+        <v>354.743712975739</v>
       </c>
       <c r="M22" t="n">
-        <v>590.0818943619344</v>
+        <v>590.0818943619342</v>
       </c>
       <c r="N22" t="n">
-        <v>128.7867795998884</v>
+        <v>575.5128433954892</v>
       </c>
       <c r="O22" t="n">
-        <v>542.8637682561043</v>
+        <v>118.9554357048098</v>
       </c>
       <c r="P22" t="n">
         <v>452.8039900485103</v>
@@ -36360,7 +36360,7 @@
         <v>159.239166912571</v>
       </c>
       <c r="K23" t="n">
-        <v>238.6582327062838</v>
+        <v>665.8176595609314</v>
       </c>
       <c r="L23" t="n">
         <v>296.0766412766674</v>
@@ -36375,10 +36375,10 @@
         <v>316.1166813548411</v>
       </c>
       <c r="P23" t="n">
-        <v>269.7982739184538</v>
+        <v>269.7982739184536</v>
       </c>
       <c r="Q23" t="n">
-        <v>629.7666945425981</v>
+        <v>202.6072676879471</v>
       </c>
       <c r="R23" t="n">
         <v>117.855135640546</v>
@@ -36433,7 +36433,7 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>34.5623597691678</v>
+        <v>34.56235976916768</v>
       </c>
       <c r="J24" t="n">
         <v>94.84175691562339</v>
@@ -36521,19 +36521,19 @@
         <v>375.3116718572664</v>
       </c>
       <c r="L25" t="n">
-        <v>547.556245844706</v>
+        <v>125.1220218366645</v>
       </c>
       <c r="M25" t="n">
-        <v>131.9236286247772</v>
+        <v>596.048746989336</v>
       </c>
       <c r="N25" t="n">
-        <v>309.2299588497044</v>
+        <v>575.5128433954892</v>
       </c>
       <c r="O25" t="n">
         <v>542.8637682561043</v>
       </c>
       <c r="P25" t="n">
-        <v>452.8039900485105</v>
+        <v>144.8302111462049</v>
       </c>
       <c r="Q25" t="n">
         <v>240.36368292423</v>
@@ -36676,13 +36676,13 @@
         <v>94.84175691562339</v>
       </c>
       <c r="K27" t="n">
-        <v>162.099668741586</v>
+        <v>162.0996687415861</v>
       </c>
       <c r="L27" t="n">
         <v>217.963008964669</v>
       </c>
       <c r="M27" t="n">
-        <v>254.3525508108055</v>
+        <v>254.3525508108054</v>
       </c>
       <c r="N27" t="n">
         <v>261.0845059811313</v>
@@ -36752,16 +36752,16 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>146.9548978453262</v>
+        <v>59.50067040624559</v>
       </c>
       <c r="K28" t="n">
-        <v>308.7750321075933</v>
+        <v>101.9958329642687</v>
       </c>
       <c r="L28" t="n">
         <v>547.556245844706</v>
       </c>
       <c r="M28" t="n">
-        <v>131.9236286247772</v>
+        <v>596.0487469893359</v>
       </c>
       <c r="N28" t="n">
         <v>575.5128433954892</v>
@@ -36773,7 +36773,7 @@
         <v>452.8039900485101</v>
       </c>
       <c r="Q28" t="n">
-        <v>240.36368292423</v>
+        <v>70.4719911420766</v>
       </c>
       <c r="R28" t="n">
         <v>16.63746735027015</v>
@@ -36852,10 +36852,10 @@
         <v>269.7982739184538</v>
       </c>
       <c r="Q29" t="n">
-        <v>748.4075614369995</v>
+        <v>658.6502476689548</v>
       </c>
       <c r="R29" t="n">
-        <v>198.9605135422562</v>
+        <v>288.7178273103004</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36907,7 +36907,7 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>34.56235976916779</v>
+        <v>34.5623597691678</v>
       </c>
       <c r="J30" t="n">
         <v>94.84175691562339</v>
@@ -36919,10 +36919,10 @@
         <v>217.963008964669</v>
       </c>
       <c r="M30" t="n">
-        <v>254.3525508108054</v>
+        <v>254.3525508108055</v>
       </c>
       <c r="N30" t="n">
-        <v>261.0845059811313</v>
+        <v>261.0845059811314</v>
       </c>
       <c r="O30" t="n">
         <v>238.8413159742734</v>
@@ -36931,7 +36931,7 @@
         <v>191.6912126917232</v>
       </c>
       <c r="Q30" t="n">
-        <v>128.1404992002369</v>
+        <v>128.1404992002367</v>
       </c>
       <c r="R30" t="n">
         <v>62.32672164233622</v>
@@ -36989,25 +36989,25 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>59.50067040624558</v>
+        <v>146.9548978453262</v>
       </c>
       <c r="K31" t="n">
-        <v>97.77787936116991</v>
+        <v>375.3116718572664</v>
       </c>
       <c r="L31" t="n">
-        <v>547.556245844706</v>
+        <v>547.5562458447059</v>
       </c>
       <c r="M31" t="n">
-        <v>596.0487469893359</v>
+        <v>131.9236286247772</v>
       </c>
       <c r="N31" t="n">
-        <v>409.8391052164345</v>
+        <v>508.9762036458162</v>
       </c>
       <c r="O31" t="n">
         <v>542.8637682561043</v>
       </c>
       <c r="P31" t="n">
-        <v>452.8039900485105</v>
+        <v>452.8039900485101</v>
       </c>
       <c r="Q31" t="n">
         <v>240.36368292423</v>
@@ -37068,28 +37068,28 @@
         <v>71.91914166785921</v>
       </c>
       <c r="J32" t="n">
-        <v>201.647617756052</v>
+        <v>598.8903663599629</v>
       </c>
       <c r="K32" t="n">
         <v>238.6582327062838</v>
       </c>
       <c r="L32" t="n">
-        <v>296.0766412766674</v>
+        <v>296.0766412766673</v>
       </c>
       <c r="M32" t="n">
         <v>329.4423112816032</v>
       </c>
       <c r="N32" t="n">
-        <v>748.407561436999</v>
+        <v>334.7730322994721</v>
       </c>
       <c r="O32" t="n">
-        <v>316.1166813548411</v>
+        <v>316.1166813548409</v>
       </c>
       <c r="P32" t="n">
         <v>269.7982739184536</v>
       </c>
       <c r="Q32" t="n">
-        <v>202.6072676879471</v>
+        <v>218.9990482215635</v>
       </c>
       <c r="R32" t="n">
         <v>288.7178273103004</v>
@@ -37147,7 +37147,7 @@
         <v>34.5623597691678</v>
       </c>
       <c r="J33" t="n">
-        <v>94.84175691562339</v>
+        <v>94.84175691562328</v>
       </c>
       <c r="K33" t="n">
         <v>162.0996687415861</v>
@@ -37159,10 +37159,10 @@
         <v>254.3525508108055</v>
       </c>
       <c r="N33" t="n">
-        <v>261.0845059811314</v>
+        <v>261.0845059811313</v>
       </c>
       <c r="O33" t="n">
-        <v>238.8413159742731</v>
+        <v>238.8413159742734</v>
       </c>
       <c r="P33" t="n">
         <v>191.6912126917232</v>
@@ -37226,19 +37226,19 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>59.50067040624559</v>
+        <v>146.9548978453262</v>
       </c>
       <c r="K34" t="n">
-        <v>97.77787936116991</v>
+        <v>375.3116718572664</v>
       </c>
       <c r="L34" t="n">
-        <v>381.8825076656514</v>
+        <v>547.5562458447059</v>
       </c>
       <c r="M34" t="n">
-        <v>596.0487469893359</v>
+        <v>131.9236286247772</v>
       </c>
       <c r="N34" t="n">
-        <v>575.5128433954892</v>
+        <v>508.9762036458162</v>
       </c>
       <c r="O34" t="n">
         <v>542.8637682561043</v>
@@ -37305,13 +37305,13 @@
         <v>71.91914166785921</v>
       </c>
       <c r="J35" t="n">
-        <v>159.239166912571</v>
+        <v>159.2391669125714</v>
       </c>
       <c r="K35" t="n">
         <v>238.6582327062838</v>
       </c>
       <c r="L35" t="n">
-        <v>296.0766412766674</v>
+        <v>296.0766412766673</v>
       </c>
       <c r="M35" t="n">
         <v>329.4423112816032</v>
@@ -37323,13 +37323,13 @@
         <v>316.1166813548411</v>
       </c>
       <c r="P35" t="n">
-        <v>269.7982739184533</v>
+        <v>269.7982739184536</v>
       </c>
       <c r="Q35" t="n">
         <v>202.6072676879471</v>
       </c>
       <c r="R35" t="n">
-        <v>117.8551356405465</v>
+        <v>117.855135640546</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37463,16 +37463,16 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>146.9548978453263</v>
+        <v>59.50067040624558</v>
       </c>
       <c r="K37" t="n">
         <v>375.3116718572664</v>
       </c>
       <c r="L37" t="n">
-        <v>125.1220218366645</v>
+        <v>547.5562458447062</v>
       </c>
       <c r="M37" t="n">
-        <v>590.0818943619341</v>
+        <v>131.9236286247772</v>
       </c>
       <c r="N37" t="n">
         <v>128.7867795998884</v>
@@ -37481,10 +37481,10 @@
         <v>542.8637682561043</v>
       </c>
       <c r="P37" t="n">
-        <v>170.3637007145605</v>
+        <v>452.8039900485103</v>
       </c>
       <c r="Q37" t="n">
-        <v>240.36368292423</v>
+        <v>81.10166275847632</v>
       </c>
       <c r="R37" t="n">
         <v>16.63746735027015</v>
@@ -37712,16 +37712,16 @@
         <v>131.9236286247772</v>
       </c>
       <c r="N40" t="n">
-        <v>393.4330919854292</v>
+        <v>128.7867795998884</v>
       </c>
       <c r="O40" t="n">
-        <v>118.9554357048098</v>
+        <v>542.8637682561043</v>
       </c>
       <c r="P40" t="n">
         <v>452.8039900485103</v>
       </c>
       <c r="Q40" t="n">
-        <v>240.36368292423</v>
+        <v>81.10166275847632</v>
       </c>
       <c r="R40" t="n">
         <v>16.63746735027015</v>
@@ -37797,13 +37797,13 @@
         <v>316.1166813548411</v>
       </c>
       <c r="P41" t="n">
-        <v>269.7982739184536</v>
+        <v>269.7982739184533</v>
       </c>
       <c r="Q41" t="n">
         <v>202.6072676879471</v>
       </c>
       <c r="R41" t="n">
-        <v>117.855135640546</v>
+        <v>117.8551356405465</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37937,25 +37937,25 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>59.50067040624558</v>
+        <v>146.9548978453263</v>
       </c>
       <c r="K43" t="n">
         <v>375.3116718572664</v>
       </c>
       <c r="L43" t="n">
-        <v>258.335293313996</v>
+        <v>547.556245844706</v>
       </c>
       <c r="M43" t="n">
-        <v>590.0818943619342</v>
+        <v>131.9236286247772</v>
       </c>
       <c r="N43" t="n">
-        <v>575.512843395489</v>
+        <v>128.7867795998884</v>
       </c>
       <c r="O43" t="n">
-        <v>118.9554357048098</v>
+        <v>296.14752065127</v>
       </c>
       <c r="P43" t="n">
-        <v>101.7869254320035</v>
+        <v>452.8039900485103</v>
       </c>
       <c r="Q43" t="n">
         <v>240.36368292423</v>
@@ -38016,13 +38016,13 @@
         <v>71.91914166785921</v>
       </c>
       <c r="J44" t="n">
-        <v>159.2391669125714</v>
+        <v>159.2391669125712</v>
       </c>
       <c r="K44" t="n">
         <v>238.6582327062838</v>
       </c>
       <c r="L44" t="n">
-        <v>296.0766412766673</v>
+        <v>296.0766412766674</v>
       </c>
       <c r="M44" t="n">
         <v>329.4423112816032</v>
@@ -38174,10 +38174,10 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>59.50067040624558</v>
+        <v>146.9548978453263</v>
       </c>
       <c r="K46" t="n">
-        <v>97.77787936116989</v>
+        <v>97.77787936116991</v>
       </c>
       <c r="L46" t="n">
         <v>125.1220218366646</v>
@@ -38186,16 +38186,16 @@
         <v>590.0818943619342</v>
       </c>
       <c r="N46" t="n">
-        <v>575.5128433954891</v>
+        <v>575.5128433954892</v>
       </c>
       <c r="O46" t="n">
-        <v>178.6854350617309</v>
+        <v>542.8637682561043</v>
       </c>
       <c r="P46" t="n">
-        <v>452.8039900485103</v>
+        <v>171.0631211972095</v>
       </c>
       <c r="Q46" t="n">
-        <v>240.36368292423</v>
+        <v>70.4719911420766</v>
       </c>
       <c r="R46" t="n">
         <v>16.63746735027015</v>
